--- a/SAE_3_01/fichiers genere/S5AFI.xlsx
+++ b/SAE_3_01/fichiers genere/S5AFI.xlsx
@@ -3302,9 +3302,17 @@
       <c r="R34" s="28" t="n"/>
     </row>
     <row r="35">
-      <c r="A35" s="28" t="n"/>
+      <c r="A35" s="28" t="inlineStr">
+        <is>
+          <t>2023-10-02</t>
+        </is>
+      </c>
       <c r="B35" s="29" t="n"/>
-      <c r="C35" s="28" t="n"/>
+      <c r="C35" s="28" t="inlineStr">
+        <is>
+          <t>TD 4H</t>
+        </is>
+      </c>
       <c r="D35" s="28" t="n"/>
       <c r="E35" s="28" t="n"/>
       <c r="F35" s="28" t="n"/>
@@ -3322,10 +3330,18 @@
       <c r="R35" s="28" t="n"/>
     </row>
     <row r="36">
-      <c r="A36" s="28" t="n"/>
+      <c r="A36" s="28" t="inlineStr">
+        <is>
+          <t>2023-10-09</t>
+        </is>
+      </c>
       <c r="B36" s="29" t="n"/>
       <c r="C36" s="28" t="n"/>
-      <c r="D36" s="28" t="n"/>
+      <c r="D36" s="28" t="inlineStr">
+        <is>
+          <t>TP 4H</t>
+        </is>
+      </c>
       <c r="E36" s="28" t="n"/>
       <c r="F36" s="28" t="n"/>
       <c r="G36" s="28" t="n"/>
@@ -3342,9 +3358,17 @@
       <c r="R36" s="28" t="n"/>
     </row>
     <row r="37">
-      <c r="A37" s="28" t="n"/>
+      <c r="A37" s="28" t="inlineStr">
+        <is>
+          <t>2023-10-16</t>
+        </is>
+      </c>
       <c r="B37" s="29" t="n"/>
-      <c r="C37" s="28" t="n"/>
+      <c r="C37" s="28" t="inlineStr">
+        <is>
+          <t>TD 4H</t>
+        </is>
+      </c>
       <c r="D37" s="28" t="n"/>
       <c r="E37" s="28" t="n"/>
       <c r="F37" s="28" t="n"/>
@@ -3362,10 +3386,18 @@
       <c r="R37" s="28" t="n"/>
     </row>
     <row r="38">
-      <c r="A38" s="28" t="n"/>
+      <c r="A38" s="28" t="inlineStr">
+        <is>
+          <t>2023-10-23</t>
+        </is>
+      </c>
       <c r="B38" s="28" t="n"/>
       <c r="C38" s="28" t="n"/>
-      <c r="D38" s="28" t="n"/>
+      <c r="D38" s="28" t="inlineStr">
+        <is>
+          <t>TP 2H</t>
+        </is>
+      </c>
       <c r="E38" s="28" t="n"/>
       <c r="F38" s="28" t="n"/>
       <c r="G38" s="28" t="n"/>
@@ -5093,9 +5125,17 @@
       <c r="R34" s="28" t="n"/>
     </row>
     <row r="35">
-      <c r="A35" s="28" t="n"/>
+      <c r="A35" s="28" t="inlineStr">
+        <is>
+          <t>2023-11-27</t>
+        </is>
+      </c>
       <c r="B35" s="29" t="n"/>
-      <c r="C35" s="28" t="n"/>
+      <c r="C35" s="28" t="inlineStr">
+        <is>
+          <t>TD 4H</t>
+        </is>
+      </c>
       <c r="D35" s="28" t="n"/>
       <c r="E35" s="28" t="n"/>
       <c r="F35" s="28" t="n"/>
@@ -5113,9 +5153,17 @@
       <c r="R35" s="28" t="n"/>
     </row>
     <row r="36">
-      <c r="A36" s="28" t="n"/>
+      <c r="A36" s="28" t="inlineStr">
+        <is>
+          <t>2023-12-04</t>
+        </is>
+      </c>
       <c r="B36" s="29" t="n"/>
-      <c r="C36" s="28" t="n"/>
+      <c r="C36" s="28" t="inlineStr">
+        <is>
+          <t>TD 4H</t>
+        </is>
+      </c>
       <c r="D36" s="28" t="n"/>
       <c r="E36" s="28" t="n"/>
       <c r="F36" s="28" t="n"/>
@@ -5133,10 +5181,22 @@
       <c r="R36" s="28" t="n"/>
     </row>
     <row r="37">
-      <c r="A37" s="28" t="n"/>
+      <c r="A37" s="28" t="inlineStr">
+        <is>
+          <t>2023-12-11</t>
+        </is>
+      </c>
       <c r="B37" s="29" t="n"/>
-      <c r="C37" s="28" t="n"/>
-      <c r="D37" s="28" t="n"/>
+      <c r="C37" s="28" t="inlineStr">
+        <is>
+          <t>TD 2H</t>
+        </is>
+      </c>
+      <c r="D37" s="28" t="inlineStr">
+        <is>
+          <t>TP 2H</t>
+        </is>
+      </c>
       <c r="E37" s="28" t="n"/>
       <c r="F37" s="28" t="n"/>
       <c r="G37" s="28" t="n"/>
@@ -5153,10 +5213,18 @@
       <c r="R37" s="28" t="n"/>
     </row>
     <row r="38">
-      <c r="A38" s="28" t="n"/>
+      <c r="A38" s="28" t="inlineStr">
+        <is>
+          <t>2023-12-18</t>
+        </is>
+      </c>
       <c r="B38" s="28" t="n"/>
       <c r="C38" s="28" t="n"/>
-      <c r="D38" s="28" t="n"/>
+      <c r="D38" s="28" t="inlineStr">
+        <is>
+          <t>TP 4H</t>
+        </is>
+      </c>
       <c r="E38" s="28" t="n"/>
       <c r="F38" s="28" t="n"/>
       <c r="G38" s="28" t="n"/>
@@ -6884,9 +6952,17 @@
       <c r="R34" s="28" t="n"/>
     </row>
     <row r="35">
-      <c r="A35" s="28" t="n"/>
+      <c r="A35" s="28" t="inlineStr">
+        <is>
+          <t>2023-12-04</t>
+        </is>
+      </c>
       <c r="B35" s="29" t="n"/>
-      <c r="C35" s="28" t="n"/>
+      <c r="C35" s="28" t="inlineStr">
+        <is>
+          <t>TD 4H</t>
+        </is>
+      </c>
       <c r="D35" s="28" t="n"/>
       <c r="E35" s="28" t="n"/>
       <c r="F35" s="28" t="n"/>
@@ -6904,10 +6980,18 @@
       <c r="R35" s="28" t="n"/>
     </row>
     <row r="36">
-      <c r="A36" s="28" t="n"/>
+      <c r="A36" s="28" t="inlineStr">
+        <is>
+          <t>2023-12-11</t>
+        </is>
+      </c>
       <c r="B36" s="29" t="n"/>
       <c r="C36" s="28" t="n"/>
-      <c r="D36" s="28" t="n"/>
+      <c r="D36" s="28" t="inlineStr">
+        <is>
+          <t>TP 4H</t>
+        </is>
+      </c>
       <c r="E36" s="28" t="n"/>
       <c r="F36" s="28" t="n"/>
       <c r="G36" s="28" t="n"/>
@@ -6924,10 +7008,18 @@
       <c r="R36" s="28" t="n"/>
     </row>
     <row r="37">
-      <c r="A37" s="28" t="n"/>
+      <c r="A37" s="28" t="inlineStr">
+        <is>
+          <t>2023-12-18</t>
+        </is>
+      </c>
       <c r="B37" s="29" t="n"/>
       <c r="C37" s="28" t="n"/>
-      <c r="D37" s="28" t="n"/>
+      <c r="D37" s="28" t="inlineStr">
+        <is>
+          <t>TP 4H</t>
+        </is>
+      </c>
       <c r="E37" s="28" t="n"/>
       <c r="F37" s="28" t="n"/>
       <c r="G37" s="28" t="n"/>
@@ -8675,9 +8767,21 @@
       <c r="R34" s="28" t="n"/>
     </row>
     <row r="35">
-      <c r="A35" s="28" t="n"/>
-      <c r="B35" s="29" t="n"/>
-      <c r="C35" s="28" t="n"/>
+      <c r="A35" s="28" t="inlineStr">
+        <is>
+          <t>2023-10-02</t>
+        </is>
+      </c>
+      <c r="B35" s="29" t="inlineStr">
+        <is>
+          <t>Amphi 2H</t>
+        </is>
+      </c>
+      <c r="C35" s="28" t="inlineStr">
+        <is>
+          <t>TD 4H</t>
+        </is>
+      </c>
       <c r="D35" s="28" t="n"/>
       <c r="E35" s="28" t="n"/>
       <c r="F35" s="28" t="n"/>
@@ -8695,9 +8799,21 @@
       <c r="R35" s="28" t="n"/>
     </row>
     <row r="36">
-      <c r="A36" s="28" t="n"/>
-      <c r="B36" s="29" t="n"/>
-      <c r="C36" s="28" t="n"/>
+      <c r="A36" s="28" t="inlineStr">
+        <is>
+          <t>2023-10-09</t>
+        </is>
+      </c>
+      <c r="B36" s="29" t="inlineStr">
+        <is>
+          <t>Amphi 2H</t>
+        </is>
+      </c>
+      <c r="C36" s="28" t="inlineStr">
+        <is>
+          <t>TD 4H</t>
+        </is>
+      </c>
       <c r="D36" s="28" t="n"/>
       <c r="E36" s="28" t="n"/>
       <c r="F36" s="28" t="n"/>
@@ -8715,10 +8831,18 @@
       <c r="R36" s="28" t="n"/>
     </row>
     <row r="37">
-      <c r="A37" s="28" t="n"/>
+      <c r="A37" s="28" t="inlineStr">
+        <is>
+          <t>2023-10-16</t>
+        </is>
+      </c>
       <c r="B37" s="29" t="n"/>
       <c r="C37" s="28" t="n"/>
-      <c r="D37" s="28" t="n"/>
+      <c r="D37" s="28" t="inlineStr">
+        <is>
+          <t>TP 4H</t>
+        </is>
+      </c>
       <c r="E37" s="28" t="n"/>
       <c r="F37" s="28" t="n"/>
       <c r="G37" s="28" t="n"/>
@@ -8735,10 +8859,18 @@
       <c r="R37" s="28" t="n"/>
     </row>
     <row r="38">
-      <c r="A38" s="28" t="n"/>
+      <c r="A38" s="28" t="inlineStr">
+        <is>
+          <t>2023-10-23</t>
+        </is>
+      </c>
       <c r="B38" s="28" t="n"/>
       <c r="C38" s="28" t="n"/>
-      <c r="D38" s="28" t="n"/>
+      <c r="D38" s="28" t="inlineStr">
+        <is>
+          <t>TP 4H</t>
+        </is>
+      </c>
       <c r="E38" s="28" t="n"/>
       <c r="F38" s="28" t="n"/>
       <c r="G38" s="28" t="n"/>
@@ -10466,9 +10598,17 @@
       <c r="R34" s="28" t="n"/>
     </row>
     <row r="35">
-      <c r="A35" s="28" t="n"/>
+      <c r="A35" s="28" t="inlineStr">
+        <is>
+          <t>2023-10-02</t>
+        </is>
+      </c>
       <c r="B35" s="29" t="n"/>
-      <c r="C35" s="28" t="n"/>
+      <c r="C35" s="28" t="inlineStr">
+        <is>
+          <t>TD 4H</t>
+        </is>
+      </c>
       <c r="D35" s="28" t="n"/>
       <c r="E35" s="28" t="n"/>
       <c r="F35" s="28" t="n"/>
@@ -10486,9 +10626,17 @@
       <c r="R35" s="28" t="n"/>
     </row>
     <row r="36">
-      <c r="A36" s="28" t="n"/>
+      <c r="A36" s="28" t="inlineStr">
+        <is>
+          <t>2023-10-09</t>
+        </is>
+      </c>
       <c r="B36" s="29" t="n"/>
-      <c r="C36" s="28" t="n"/>
+      <c r="C36" s="28" t="inlineStr">
+        <is>
+          <t>TD 4H</t>
+        </is>
+      </c>
       <c r="D36" s="28" t="n"/>
       <c r="E36" s="28" t="n"/>
       <c r="F36" s="28" t="n"/>
@@ -10506,9 +10654,17 @@
       <c r="R36" s="28" t="n"/>
     </row>
     <row r="37">
-      <c r="A37" s="28" t="n"/>
+      <c r="A37" s="28" t="inlineStr">
+        <is>
+          <t>2023-10-16</t>
+        </is>
+      </c>
       <c r="B37" s="29" t="n"/>
-      <c r="C37" s="28" t="n"/>
+      <c r="C37" s="28" t="inlineStr">
+        <is>
+          <t>TD 4H</t>
+        </is>
+      </c>
       <c r="D37" s="28" t="n"/>
       <c r="E37" s="28" t="n"/>
       <c r="F37" s="28" t="n"/>
@@ -10526,10 +10682,18 @@
       <c r="R37" s="28" t="n"/>
     </row>
     <row r="38">
-      <c r="A38" s="28" t="n"/>
+      <c r="A38" s="28" t="inlineStr">
+        <is>
+          <t>2023-11-27</t>
+        </is>
+      </c>
       <c r="B38" s="28" t="n"/>
       <c r="C38" s="28" t="n"/>
-      <c r="D38" s="28" t="n"/>
+      <c r="D38" s="28" t="inlineStr">
+        <is>
+          <t>TP 4H</t>
+        </is>
+      </c>
       <c r="E38" s="28" t="n"/>
       <c r="F38" s="28" t="n"/>
       <c r="G38" s="28" t="n"/>
@@ -12257,9 +12421,21 @@
       <c r="R34" s="28" t="n"/>
     </row>
     <row r="35">
-      <c r="A35" s="28" t="n"/>
-      <c r="B35" s="29" t="n"/>
-      <c r="C35" s="28" t="n"/>
+      <c r="A35" s="28" t="inlineStr">
+        <is>
+          <t>2023-10-09</t>
+        </is>
+      </c>
+      <c r="B35" s="29" t="inlineStr">
+        <is>
+          <t>Amphi 2H</t>
+        </is>
+      </c>
+      <c r="C35" s="28" t="inlineStr">
+        <is>
+          <t>TD 2H</t>
+        </is>
+      </c>
       <c r="D35" s="28" t="n"/>
       <c r="E35" s="28" t="n"/>
       <c r="F35" s="28" t="n"/>
@@ -12277,9 +12453,21 @@
       <c r="R35" s="28" t="n"/>
     </row>
     <row r="36">
-      <c r="A36" s="28" t="n"/>
-      <c r="B36" s="29" t="n"/>
-      <c r="C36" s="28" t="n"/>
+      <c r="A36" s="28" t="inlineStr">
+        <is>
+          <t>2023-10-16</t>
+        </is>
+      </c>
+      <c r="B36" s="29" t="inlineStr">
+        <is>
+          <t>Amphi 2H</t>
+        </is>
+      </c>
+      <c r="C36" s="28" t="inlineStr">
+        <is>
+          <t>TD 2H</t>
+        </is>
+      </c>
       <c r="D36" s="28" t="n"/>
       <c r="E36" s="28" t="n"/>
       <c r="F36" s="28" t="n"/>
@@ -12297,10 +12485,22 @@
       <c r="R36" s="28" t="n"/>
     </row>
     <row r="37">
-      <c r="A37" s="28" t="n"/>
+      <c r="A37" s="28" t="inlineStr">
+        <is>
+          <t>2023-10-23</t>
+        </is>
+      </c>
       <c r="B37" s="29" t="n"/>
-      <c r="C37" s="28" t="n"/>
-      <c r="D37" s="28" t="n"/>
+      <c r="C37" s="28" t="inlineStr">
+        <is>
+          <t>TD 4H</t>
+        </is>
+      </c>
+      <c r="D37" s="28" t="inlineStr">
+        <is>
+          <t>TP 2H</t>
+        </is>
+      </c>
       <c r="E37" s="28" t="n"/>
       <c r="F37" s="28" t="n"/>
       <c r="G37" s="28" t="n"/>
@@ -12317,9 +12517,21 @@
       <c r="R37" s="28" t="n"/>
     </row>
     <row r="38">
-      <c r="A38" s="28" t="n"/>
-      <c r="B38" s="28" t="n"/>
-      <c r="C38" s="28" t="n"/>
+      <c r="A38" s="28" t="inlineStr">
+        <is>
+          <t>2023-12-04</t>
+        </is>
+      </c>
+      <c r="B38" s="28" t="inlineStr">
+        <is>
+          <t>Amphi 2H</t>
+        </is>
+      </c>
+      <c r="C38" s="28" t="inlineStr">
+        <is>
+          <t>TD 4H</t>
+        </is>
+      </c>
       <c r="D38" s="28" t="n"/>
       <c r="E38" s="28" t="n"/>
       <c r="F38" s="28" t="n"/>
@@ -12337,9 +12549,21 @@
       <c r="R38" s="28" t="n"/>
     </row>
     <row r="39">
-      <c r="A39" s="28" t="n"/>
-      <c r="B39" s="28" t="n"/>
-      <c r="C39" s="28" t="n"/>
+      <c r="A39" s="28" t="inlineStr">
+        <is>
+          <t>2023-12-11</t>
+        </is>
+      </c>
+      <c r="B39" s="28" t="inlineStr">
+        <is>
+          <t>Amphi 2H</t>
+        </is>
+      </c>
+      <c r="C39" s="28" t="inlineStr">
+        <is>
+          <t>TD 4H</t>
+        </is>
+      </c>
       <c r="D39" s="28" t="n"/>
       <c r="E39" s="28" t="n"/>
       <c r="F39" s="28" t="n"/>
@@ -12357,10 +12581,18 @@
       <c r="R39" s="28" t="n"/>
     </row>
     <row r="40">
-      <c r="A40" s="28" t="n"/>
+      <c r="A40" s="28" t="inlineStr">
+        <is>
+          <t>2023-12-18</t>
+        </is>
+      </c>
       <c r="B40" s="28" t="n"/>
       <c r="C40" s="28" t="n"/>
-      <c r="D40" s="28" t="n"/>
+      <c r="D40" s="28" t="inlineStr">
+        <is>
+          <t>TP 4H</t>
+        </is>
+      </c>
       <c r="E40" s="28" t="n"/>
       <c r="F40" s="28" t="n"/>
       <c r="G40" s="28" t="n"/>
@@ -14048,8 +14280,16 @@
       <c r="R34" s="28" t="n"/>
     </row>
     <row r="35">
-      <c r="A35" s="28" t="n"/>
-      <c r="B35" s="29" t="n"/>
+      <c r="A35" s="28" t="inlineStr">
+        <is>
+          <t>2023-10-02</t>
+        </is>
+      </c>
+      <c r="B35" s="29" t="inlineStr">
+        <is>
+          <t>Amphi 2H</t>
+        </is>
+      </c>
       <c r="C35" s="28" t="n"/>
       <c r="D35" s="28" t="n"/>
       <c r="E35" s="28" t="n"/>
@@ -14068,9 +14308,17 @@
       <c r="R35" s="28" t="n"/>
     </row>
     <row r="36">
-      <c r="A36" s="28" t="n"/>
+      <c r="A36" s="28" t="inlineStr">
+        <is>
+          <t>2023-10-09</t>
+        </is>
+      </c>
       <c r="B36" s="29" t="n"/>
-      <c r="C36" s="28" t="n"/>
+      <c r="C36" s="28" t="inlineStr">
+        <is>
+          <t>TD 4H</t>
+        </is>
+      </c>
       <c r="D36" s="28" t="n"/>
       <c r="E36" s="28" t="n"/>
       <c r="F36" s="28" t="n"/>
@@ -14088,9 +14336,17 @@
       <c r="R36" s="28" t="n"/>
     </row>
     <row r="37">
-      <c r="A37" s="28" t="n"/>
+      <c r="A37" s="28" t="inlineStr">
+        <is>
+          <t>2023-10-16</t>
+        </is>
+      </c>
       <c r="B37" s="29" t="n"/>
-      <c r="C37" s="28" t="n"/>
+      <c r="C37" s="28" t="inlineStr">
+        <is>
+          <t>TD 4H</t>
+        </is>
+      </c>
       <c r="D37" s="28" t="n"/>
       <c r="E37" s="28" t="n"/>
       <c r="F37" s="28" t="n"/>
@@ -14108,9 +14364,17 @@
       <c r="R37" s="28" t="n"/>
     </row>
     <row r="38">
-      <c r="A38" s="28" t="n"/>
+      <c r="A38" s="28" t="inlineStr">
+        <is>
+          <t>2023-10-23</t>
+        </is>
+      </c>
       <c r="B38" s="28" t="n"/>
-      <c r="C38" s="28" t="n"/>
+      <c r="C38" s="28" t="inlineStr">
+        <is>
+          <t>TD 4H</t>
+        </is>
+      </c>
       <c r="D38" s="28" t="n"/>
       <c r="E38" s="28" t="n"/>
       <c r="F38" s="28" t="n"/>
@@ -14128,9 +14392,17 @@
       <c r="R38" s="28" t="n"/>
     </row>
     <row r="39">
-      <c r="A39" s="28" t="n"/>
+      <c r="A39" s="28" t="inlineStr">
+        <is>
+          <t>2023-11-27</t>
+        </is>
+      </c>
       <c r="B39" s="28" t="n"/>
-      <c r="C39" s="28" t="n"/>
+      <c r="C39" s="28" t="inlineStr">
+        <is>
+          <t>TD 4H</t>
+        </is>
+      </c>
       <c r="D39" s="28" t="n"/>
       <c r="E39" s="28" t="n"/>
       <c r="F39" s="28" t="n"/>
@@ -14148,9 +14420,17 @@
       <c r="R39" s="28" t="n"/>
     </row>
     <row r="40">
-      <c r="A40" s="28" t="n"/>
+      <c r="A40" s="28" t="inlineStr">
+        <is>
+          <t>2023-12-04</t>
+        </is>
+      </c>
       <c r="B40" s="28" t="n"/>
-      <c r="C40" s="28" t="n"/>
+      <c r="C40" s="28" t="inlineStr">
+        <is>
+          <t>TD 4H</t>
+        </is>
+      </c>
       <c r="D40" s="28" t="n"/>
       <c r="E40" s="28" t="n"/>
       <c r="F40" s="28" t="n"/>
@@ -14168,9 +14448,17 @@
       <c r="R40" s="28" t="n"/>
     </row>
     <row r="41">
-      <c r="A41" s="28" t="n"/>
+      <c r="A41" s="28" t="inlineStr">
+        <is>
+          <t>2023-12-11</t>
+        </is>
+      </c>
       <c r="B41" s="28" t="n"/>
-      <c r="C41" s="28" t="n"/>
+      <c r="C41" s="28" t="inlineStr">
+        <is>
+          <t>TD 4H</t>
+        </is>
+      </c>
       <c r="D41" s="28" t="n"/>
       <c r="E41" s="28" t="n"/>
       <c r="F41" s="28" t="n"/>
@@ -14188,9 +14476,17 @@
       <c r="R41" s="28" t="n"/>
     </row>
     <row r="42">
-      <c r="A42" s="28" t="n"/>
+      <c r="A42" s="28" t="inlineStr">
+        <is>
+          <t>2023-12-18</t>
+        </is>
+      </c>
       <c r="B42" s="28" t="n"/>
-      <c r="C42" s="28" t="n"/>
+      <c r="C42" s="28" t="inlineStr">
+        <is>
+          <t>TD 4H</t>
+        </is>
+      </c>
       <c r="D42" s="28" t="n"/>
       <c r="E42" s="28" t="n"/>
       <c r="F42" s="28" t="n"/>

--- a/SAE_3_01/fichiers genere/S5AFI.xlsx
+++ b/SAE_3_01/fichiers genere/S5AFI.xlsx
@@ -3277,17 +3277,9 @@
       <c r="R34" s="27" t="n"/>
     </row>
     <row r="35">
-      <c r="A35" s="27" t="inlineStr">
-        <is>
-          <t>2023-10-02</t>
-        </is>
-      </c>
+      <c r="A35" s="27" t="n"/>
       <c r="B35" s="28" t="n"/>
-      <c r="C35" s="27" t="inlineStr">
-        <is>
-          <t>TD 4H</t>
-        </is>
-      </c>
+      <c r="C35" s="27" t="n"/>
       <c r="D35" s="27" t="n"/>
       <c r="E35" s="27" t="n"/>
       <c r="F35" s="27" t="n"/>
@@ -3305,17 +3297,9 @@
       <c r="R35" s="27" t="n"/>
     </row>
     <row r="36">
-      <c r="A36" s="27" t="inlineStr">
-        <is>
-          <t>2023-10-09</t>
-        </is>
-      </c>
+      <c r="A36" s="27" t="n"/>
       <c r="B36" s="28" t="n"/>
-      <c r="C36" s="27" t="inlineStr">
-        <is>
-          <t>TD 4H</t>
-        </is>
-      </c>
+      <c r="C36" s="27" t="n"/>
       <c r="D36" s="27" t="n"/>
       <c r="E36" s="27" t="n"/>
       <c r="F36" s="27" t="n"/>
@@ -3333,17 +3317,9 @@
       <c r="R36" s="27" t="n"/>
     </row>
     <row r="37">
-      <c r="A37" s="27" t="inlineStr">
-        <is>
-          <t>2023-10-16</t>
-        </is>
-      </c>
+      <c r="A37" s="27" t="n"/>
       <c r="B37" s="28" t="n"/>
-      <c r="C37" s="27" t="inlineStr">
-        <is>
-          <t>TD 4H</t>
-        </is>
-      </c>
+      <c r="C37" s="27" t="n"/>
       <c r="D37" s="27" t="n"/>
       <c r="E37" s="27" t="n"/>
       <c r="F37" s="27" t="n"/>
@@ -3361,18 +3337,10 @@
       <c r="R37" s="27" t="n"/>
     </row>
     <row r="38">
-      <c r="A38" s="27" t="inlineStr">
-        <is>
-          <t>2023-11-27</t>
-        </is>
-      </c>
+      <c r="A38" s="27" t="n"/>
       <c r="B38" s="27" t="n"/>
       <c r="C38" s="27" t="n"/>
-      <c r="D38" s="27" t="inlineStr">
-        <is>
-          <t>TP 4H</t>
-        </is>
-      </c>
+      <c r="D38" s="27" t="n"/>
       <c r="E38" s="27" t="n"/>
       <c r="F38" s="27" t="n"/>
       <c r="G38" s="27" t="n"/>
@@ -5068,21 +5036,9 @@
       <c r="R34" s="27" t="n"/>
     </row>
     <row r="35">
-      <c r="A35" s="27" t="inlineStr">
-        <is>
-          <t>2023-10-09</t>
-        </is>
-      </c>
-      <c r="B35" s="28" t="inlineStr">
-        <is>
-          <t>Amphi 2H</t>
-        </is>
-      </c>
-      <c r="C35" s="27" t="inlineStr">
-        <is>
-          <t>TD 2H</t>
-        </is>
-      </c>
+      <c r="A35" s="27" t="n"/>
+      <c r="B35" s="28" t="n"/>
+      <c r="C35" s="27" t="n"/>
       <c r="D35" s="27" t="n"/>
       <c r="E35" s="27" t="n"/>
       <c r="F35" s="27" t="n"/>
@@ -5100,21 +5056,9 @@
       <c r="R35" s="27" t="n"/>
     </row>
     <row r="36">
-      <c r="A36" s="27" t="inlineStr">
-        <is>
-          <t>2023-10-16</t>
-        </is>
-      </c>
-      <c r="B36" s="28" t="inlineStr">
-        <is>
-          <t>Amphi 2H</t>
-        </is>
-      </c>
-      <c r="C36" s="27" t="inlineStr">
-        <is>
-          <t>TD 2H</t>
-        </is>
-      </c>
+      <c r="A36" s="27" t="n"/>
+      <c r="B36" s="28" t="n"/>
+      <c r="C36" s="27" t="n"/>
       <c r="D36" s="27" t="n"/>
       <c r="E36" s="27" t="n"/>
       <c r="F36" s="27" t="n"/>
@@ -5132,22 +5076,10 @@
       <c r="R36" s="27" t="n"/>
     </row>
     <row r="37">
-      <c r="A37" s="27" t="inlineStr">
-        <is>
-          <t>2023-10-23</t>
-        </is>
-      </c>
+      <c r="A37" s="27" t="n"/>
       <c r="B37" s="28" t="n"/>
-      <c r="C37" s="27" t="inlineStr">
-        <is>
-          <t>TD 4H</t>
-        </is>
-      </c>
-      <c r="D37" s="27" t="inlineStr">
-        <is>
-          <t>TP 2H</t>
-        </is>
-      </c>
+      <c r="C37" s="27" t="n"/>
+      <c r="D37" s="27" t="n"/>
       <c r="E37" s="27" t="n"/>
       <c r="F37" s="27" t="n"/>
       <c r="G37" s="27" t="n"/>
@@ -5164,21 +5096,9 @@
       <c r="R37" s="27" t="n"/>
     </row>
     <row r="38">
-      <c r="A38" s="27" t="inlineStr">
-        <is>
-          <t>2023-12-04</t>
-        </is>
-      </c>
-      <c r="B38" s="27" t="inlineStr">
-        <is>
-          <t>Amphi 2H</t>
-        </is>
-      </c>
-      <c r="C38" s="27" t="inlineStr">
-        <is>
-          <t>TD 4H</t>
-        </is>
-      </c>
+      <c r="A38" s="27" t="n"/>
+      <c r="B38" s="27" t="n"/>
+      <c r="C38" s="27" t="n"/>
       <c r="D38" s="27" t="n"/>
       <c r="E38" s="27" t="n"/>
       <c r="F38" s="27" t="n"/>
@@ -5196,21 +5116,9 @@
       <c r="R38" s="27" t="n"/>
     </row>
     <row r="39">
-      <c r="A39" s="27" t="inlineStr">
-        <is>
-          <t>2023-12-11</t>
-        </is>
-      </c>
-      <c r="B39" s="27" t="inlineStr">
-        <is>
-          <t>Amphi 2H</t>
-        </is>
-      </c>
-      <c r="C39" s="27" t="inlineStr">
-        <is>
-          <t>TD 4H</t>
-        </is>
-      </c>
+      <c r="A39" s="27" t="n"/>
+      <c r="B39" s="27" t="n"/>
+      <c r="C39" s="27" t="n"/>
       <c r="D39" s="27" t="n"/>
       <c r="E39" s="27" t="n"/>
       <c r="F39" s="27" t="n"/>
@@ -5228,18 +5136,10 @@
       <c r="R39" s="27" t="n"/>
     </row>
     <row r="40">
-      <c r="A40" s="27" t="inlineStr">
-        <is>
-          <t>2023-12-18</t>
-        </is>
-      </c>
+      <c r="A40" s="27" t="n"/>
       <c r="B40" s="27" t="n"/>
       <c r="C40" s="27" t="n"/>
-      <c r="D40" s="27" t="inlineStr">
-        <is>
-          <t>TP 4H</t>
-        </is>
-      </c>
+      <c r="D40" s="27" t="n"/>
       <c r="E40" s="27" t="n"/>
       <c r="F40" s="27" t="n"/>
       <c r="G40" s="27" t="n"/>
@@ -6895,17 +6795,9 @@
       <c r="R34" s="27" t="n"/>
     </row>
     <row r="35">
-      <c r="A35" s="27" t="inlineStr">
-        <is>
-          <t>2023-10-02</t>
-        </is>
-      </c>
+      <c r="A35" s="27" t="n"/>
       <c r="B35" s="28" t="n"/>
-      <c r="C35" s="27" t="inlineStr">
-        <is>
-          <t>TD 4H</t>
-        </is>
-      </c>
+      <c r="C35" s="27" t="n"/>
       <c r="D35" s="27" t="n"/>
       <c r="E35" s="27" t="n"/>
       <c r="F35" s="27" t="n"/>
@@ -6923,17 +6815,9 @@
       <c r="R35" s="27" t="n"/>
     </row>
     <row r="36">
-      <c r="A36" s="27" t="inlineStr">
-        <is>
-          <t>2023-10-09</t>
-        </is>
-      </c>
+      <c r="A36" s="27" t="n"/>
       <c r="B36" s="28" t="n"/>
-      <c r="C36" s="27" t="inlineStr">
-        <is>
-          <t>TD 4H</t>
-        </is>
-      </c>
+      <c r="C36" s="27" t="n"/>
       <c r="D36" s="27" t="n"/>
       <c r="E36" s="27" t="n"/>
       <c r="F36" s="27" t="n"/>
@@ -6951,17 +6835,9 @@
       <c r="R36" s="27" t="n"/>
     </row>
     <row r="37">
-      <c r="A37" s="27" t="inlineStr">
-        <is>
-          <t>2023-10-16</t>
-        </is>
-      </c>
+      <c r="A37" s="27" t="n"/>
       <c r="B37" s="28" t="n"/>
-      <c r="C37" s="27" t="inlineStr">
-        <is>
-          <t>TD 4H</t>
-        </is>
-      </c>
+      <c r="C37" s="27" t="n"/>
       <c r="D37" s="27" t="n"/>
       <c r="E37" s="27" t="n"/>
       <c r="F37" s="27" t="n"/>
@@ -6979,18 +6855,10 @@
       <c r="R37" s="27" t="n"/>
     </row>
     <row r="38">
-      <c r="A38" s="27" t="inlineStr">
-        <is>
-          <t>2023-10-23</t>
-        </is>
-      </c>
+      <c r="A38" s="27" t="n"/>
       <c r="B38" s="27" t="n"/>
       <c r="C38" s="27" t="n"/>
-      <c r="D38" s="27" t="inlineStr">
-        <is>
-          <t>TP 2H</t>
-        </is>
-      </c>
+      <c r="D38" s="27" t="n"/>
       <c r="E38" s="27" t="n"/>
       <c r="F38" s="27" t="n"/>
       <c r="G38" s="27" t="n"/>
@@ -8686,16 +8554,8 @@
       <c r="R34" s="27" t="n"/>
     </row>
     <row r="35">
-      <c r="A35" s="27" t="inlineStr">
-        <is>
-          <t>2023-10-02</t>
-        </is>
-      </c>
-      <c r="B35" s="28" t="inlineStr">
-        <is>
-          <t>Amphi 2H</t>
-        </is>
-      </c>
+      <c r="A35" s="27" t="n"/>
+      <c r="B35" s="28" t="n"/>
       <c r="C35" s="27" t="n"/>
       <c r="D35" s="27" t="n"/>
       <c r="E35" s="27" t="n"/>
@@ -8714,17 +8574,9 @@
       <c r="R35" s="27" t="n"/>
     </row>
     <row r="36">
-      <c r="A36" s="27" t="inlineStr">
-        <is>
-          <t>2023-10-09</t>
-        </is>
-      </c>
+      <c r="A36" s="27" t="n"/>
       <c r="B36" s="28" t="n"/>
-      <c r="C36" s="27" t="inlineStr">
-        <is>
-          <t>TD 4H</t>
-        </is>
-      </c>
+      <c r="C36" s="27" t="n"/>
       <c r="D36" s="27" t="n"/>
       <c r="E36" s="27" t="n"/>
       <c r="F36" s="27" t="n"/>
@@ -8742,17 +8594,9 @@
       <c r="R36" s="27" t="n"/>
     </row>
     <row r="37">
-      <c r="A37" s="27" t="inlineStr">
-        <is>
-          <t>2023-10-16</t>
-        </is>
-      </c>
+      <c r="A37" s="27" t="n"/>
       <c r="B37" s="28" t="n"/>
-      <c r="C37" s="27" t="inlineStr">
-        <is>
-          <t>TD 4H</t>
-        </is>
-      </c>
+      <c r="C37" s="27" t="n"/>
       <c r="D37" s="27" t="n"/>
       <c r="E37" s="27" t="n"/>
       <c r="F37" s="27" t="n"/>
@@ -8770,17 +8614,9 @@
       <c r="R37" s="27" t="n"/>
     </row>
     <row r="38">
-      <c r="A38" s="27" t="inlineStr">
-        <is>
-          <t>2023-10-23</t>
-        </is>
-      </c>
+      <c r="A38" s="27" t="n"/>
       <c r="B38" s="27" t="n"/>
-      <c r="C38" s="27" t="inlineStr">
-        <is>
-          <t>TD 4H</t>
-        </is>
-      </c>
+      <c r="C38" s="27" t="n"/>
       <c r="D38" s="27" t="n"/>
       <c r="E38" s="27" t="n"/>
       <c r="F38" s="27" t="n"/>
@@ -8798,17 +8634,9 @@
       <c r="R38" s="27" t="n"/>
     </row>
     <row r="39">
-      <c r="A39" s="27" t="inlineStr">
-        <is>
-          <t>2023-11-27</t>
-        </is>
-      </c>
+      <c r="A39" s="27" t="n"/>
       <c r="B39" s="27" t="n"/>
-      <c r="C39" s="27" t="inlineStr">
-        <is>
-          <t>TD 4H</t>
-        </is>
-      </c>
+      <c r="C39" s="27" t="n"/>
       <c r="D39" s="27" t="n"/>
       <c r="E39" s="27" t="n"/>
       <c r="F39" s="27" t="n"/>
@@ -8826,17 +8654,9 @@
       <c r="R39" s="27" t="n"/>
     </row>
     <row r="40">
-      <c r="A40" s="27" t="inlineStr">
-        <is>
-          <t>2023-12-04</t>
-        </is>
-      </c>
+      <c r="A40" s="27" t="n"/>
       <c r="B40" s="27" t="n"/>
-      <c r="C40" s="27" t="inlineStr">
-        <is>
-          <t>TD 4H</t>
-        </is>
-      </c>
+      <c r="C40" s="27" t="n"/>
       <c r="D40" s="27" t="n"/>
       <c r="E40" s="27" t="n"/>
       <c r="F40" s="27" t="n"/>
@@ -8854,17 +8674,9 @@
       <c r="R40" s="27" t="n"/>
     </row>
     <row r="41">
-      <c r="A41" s="27" t="inlineStr">
-        <is>
-          <t>2023-12-11</t>
-        </is>
-      </c>
+      <c r="A41" s="27" t="n"/>
       <c r="B41" s="27" t="n"/>
-      <c r="C41" s="27" t="inlineStr">
-        <is>
-          <t>TD 4H</t>
-        </is>
-      </c>
+      <c r="C41" s="27" t="n"/>
       <c r="D41" s="27" t="n"/>
       <c r="E41" s="27" t="n"/>
       <c r="F41" s="27" t="n"/>
@@ -8882,17 +8694,9 @@
       <c r="R41" s="27" t="n"/>
     </row>
     <row r="42">
-      <c r="A42" s="27" t="inlineStr">
-        <is>
-          <t>2023-12-18</t>
-        </is>
-      </c>
+      <c r="A42" s="27" t="n"/>
       <c r="B42" s="27" t="n"/>
-      <c r="C42" s="27" t="inlineStr">
-        <is>
-          <t>TD 4H</t>
-        </is>
-      </c>
+      <c r="C42" s="27" t="n"/>
       <c r="D42" s="27" t="n"/>
       <c r="E42" s="27" t="n"/>
       <c r="F42" s="27" t="n"/>
@@ -10509,17 +10313,9 @@
       <c r="R34" s="27" t="n"/>
     </row>
     <row r="35">
-      <c r="A35" s="27" t="inlineStr">
-        <is>
-          <t>2023-10-02</t>
-        </is>
-      </c>
+      <c r="A35" s="27" t="n"/>
       <c r="B35" s="28" t="n"/>
-      <c r="C35" s="27" t="inlineStr">
-        <is>
-          <t>TD 4H</t>
-        </is>
-      </c>
+      <c r="C35" s="27" t="n"/>
       <c r="D35" s="27" t="n"/>
       <c r="E35" s="27" t="n"/>
       <c r="F35" s="27" t="n"/>
@@ -10537,17 +10333,9 @@
       <c r="R35" s="27" t="n"/>
     </row>
     <row r="36">
-      <c r="A36" s="27" t="inlineStr">
-        <is>
-          <t>2023-10-09</t>
-        </is>
-      </c>
+      <c r="A36" s="27" t="n"/>
       <c r="B36" s="28" t="n"/>
-      <c r="C36" s="27" t="inlineStr">
-        <is>
-          <t>TD 4H</t>
-        </is>
-      </c>
+      <c r="C36" s="27" t="n"/>
       <c r="D36" s="27" t="n"/>
       <c r="E36" s="27" t="n"/>
       <c r="F36" s="27" t="n"/>
@@ -10565,17 +10353,9 @@
       <c r="R36" s="27" t="n"/>
     </row>
     <row r="37">
-      <c r="A37" s="27" t="inlineStr">
-        <is>
-          <t>2023-10-16</t>
-        </is>
-      </c>
+      <c r="A37" s="27" t="n"/>
       <c r="B37" s="28" t="n"/>
-      <c r="C37" s="27" t="inlineStr">
-        <is>
-          <t>TD 4H</t>
-        </is>
-      </c>
+      <c r="C37" s="27" t="n"/>
       <c r="D37" s="27" t="n"/>
       <c r="E37" s="27" t="n"/>
       <c r="F37" s="27" t="n"/>
@@ -12292,18 +12072,10 @@
       <c r="R34" s="27" t="n"/>
     </row>
     <row r="35">
-      <c r="A35" s="27" t="inlineStr">
-        <is>
-          <t>2023-10-02</t>
-        </is>
-      </c>
+      <c r="A35" s="27" t="n"/>
       <c r="B35" s="28" t="n"/>
       <c r="C35" s="27" t="n"/>
-      <c r="D35" s="27" t="inlineStr">
-        <is>
-          <t>TP 2H</t>
-        </is>
-      </c>
+      <c r="D35" s="27" t="n"/>
       <c r="E35" s="27" t="n"/>
       <c r="F35" s="27" t="n"/>
       <c r="G35" s="27" t="n"/>
@@ -12320,18 +12092,10 @@
       <c r="R35" s="27" t="n"/>
     </row>
     <row r="36">
-      <c r="A36" s="27" t="inlineStr">
-        <is>
-          <t>2023-10-09</t>
-        </is>
-      </c>
+      <c r="A36" s="27" t="n"/>
       <c r="B36" s="28" t="n"/>
       <c r="C36" s="27" t="n"/>
-      <c r="D36" s="27" t="inlineStr">
-        <is>
-          <t>TP 2H</t>
-        </is>
-      </c>
+      <c r="D36" s="27" t="n"/>
       <c r="E36" s="27" t="n"/>
       <c r="F36" s="27" t="n"/>
       <c r="G36" s="27" t="n"/>
@@ -12348,18 +12112,10 @@
       <c r="R36" s="27" t="n"/>
     </row>
     <row r="37">
-      <c r="A37" s="27" t="inlineStr">
-        <is>
-          <t>2023-10-16</t>
-        </is>
-      </c>
+      <c r="A37" s="27" t="n"/>
       <c r="B37" s="28" t="n"/>
       <c r="C37" s="27" t="n"/>
-      <c r="D37" s="27" t="inlineStr">
-        <is>
-          <t>TP 2H</t>
-        </is>
-      </c>
+      <c r="D37" s="27" t="n"/>
       <c r="E37" s="27" t="n"/>
       <c r="F37" s="27" t="n"/>
       <c r="G37" s="27" t="n"/>
@@ -12376,18 +12132,10 @@
       <c r="R37" s="27" t="n"/>
     </row>
     <row r="38">
-      <c r="A38" s="27" t="inlineStr">
-        <is>
-          <t>2023-10-23</t>
-        </is>
-      </c>
+      <c r="A38" s="27" t="n"/>
       <c r="B38" s="27" t="n"/>
       <c r="C38" s="27" t="n"/>
-      <c r="D38" s="27" t="inlineStr">
-        <is>
-          <t>TP 2H</t>
-        </is>
-      </c>
+      <c r="D38" s="27" t="n"/>
       <c r="E38" s="27" t="n"/>
       <c r="F38" s="27" t="n"/>
       <c r="G38" s="27" t="n"/>
@@ -12404,18 +12152,10 @@
       <c r="R38" s="27" t="n"/>
     </row>
     <row r="39">
-      <c r="A39" s="27" t="inlineStr">
-        <is>
-          <t>2023-11-27</t>
-        </is>
-      </c>
+      <c r="A39" s="27" t="n"/>
       <c r="B39" s="27" t="n"/>
       <c r="C39" s="27" t="n"/>
-      <c r="D39" s="27" t="inlineStr">
-        <is>
-          <t>TP 2H</t>
-        </is>
-      </c>
+      <c r="D39" s="27" t="n"/>
       <c r="E39" s="27" t="n"/>
       <c r="F39" s="27" t="n"/>
       <c r="G39" s="27" t="n"/>
@@ -12432,18 +12172,10 @@
       <c r="R39" s="27" t="n"/>
     </row>
     <row r="40">
-      <c r="A40" s="27" t="inlineStr">
-        <is>
-          <t>2023-12-04</t>
-        </is>
-      </c>
+      <c r="A40" s="27" t="n"/>
       <c r="B40" s="27" t="n"/>
       <c r="C40" s="27" t="n"/>
-      <c r="D40" s="27" t="inlineStr">
-        <is>
-          <t>TP 2H</t>
-        </is>
-      </c>
+      <c r="D40" s="27" t="n"/>
       <c r="E40" s="27" t="n"/>
       <c r="F40" s="27" t="n"/>
       <c r="G40" s="27" t="n"/>
@@ -12460,18 +12192,10 @@
       <c r="R40" s="27" t="n"/>
     </row>
     <row r="41">
-      <c r="A41" s="27" t="inlineStr">
-        <is>
-          <t>2023-12-11</t>
-        </is>
-      </c>
+      <c r="A41" s="27" t="n"/>
       <c r="B41" s="27" t="n"/>
       <c r="C41" s="27" t="n"/>
-      <c r="D41" s="27" t="inlineStr">
-        <is>
-          <t>TP 2H</t>
-        </is>
-      </c>
+      <c r="D41" s="27" t="n"/>
       <c r="E41" s="27" t="n"/>
       <c r="F41" s="27" t="n"/>
       <c r="G41" s="27" t="n"/>
@@ -12488,18 +12212,10 @@
       <c r="R41" s="27" t="n"/>
     </row>
     <row r="42">
-      <c r="A42" s="27" t="inlineStr">
-        <is>
-          <t>2023-12-18</t>
-        </is>
-      </c>
+      <c r="A42" s="27" t="n"/>
       <c r="B42" s="27" t="n"/>
       <c r="C42" s="27" t="n"/>
-      <c r="D42" s="27" t="inlineStr">
-        <is>
-          <t>TP 2H</t>
-        </is>
-      </c>
+      <c r="D42" s="27" t="n"/>
       <c r="E42" s="27" t="n"/>
       <c r="F42" s="27" t="n"/>
       <c r="G42" s="27" t="n"/>
@@ -12516,18 +12232,10 @@
       <c r="R42" s="27" t="n"/>
     </row>
     <row r="43">
-      <c r="A43" s="27" t="inlineStr">
-        <is>
-          <t>2024-01-08</t>
-        </is>
-      </c>
+      <c r="A43" s="27" t="n"/>
       <c r="B43" s="27" t="n"/>
       <c r="C43" s="27" t="n"/>
-      <c r="D43" s="27" t="inlineStr">
-        <is>
-          <t>TP 2H</t>
-        </is>
-      </c>
+      <c r="D43" s="27" t="n"/>
       <c r="E43" s="27" t="n"/>
       <c r="F43" s="27" t="n"/>
       <c r="G43" s="27" t="n"/>
@@ -12544,18 +12252,10 @@
       <c r="R43" s="27" t="n"/>
     </row>
     <row r="44">
-      <c r="A44" s="27" t="inlineStr">
-        <is>
-          <t>2024-01-15</t>
-        </is>
-      </c>
+      <c r="A44" s="27" t="n"/>
       <c r="B44" s="27" t="n"/>
       <c r="C44" s="27" t="n"/>
-      <c r="D44" s="27" t="inlineStr">
-        <is>
-          <t>TP 2H</t>
-        </is>
-      </c>
+      <c r="D44" s="27" t="n"/>
       <c r="E44" s="27" t="n"/>
       <c r="F44" s="27" t="n"/>
       <c r="G44" s="27" t="n"/>
@@ -15890,17 +15590,9 @@
       <c r="R34" s="27" t="n"/>
     </row>
     <row r="35">
-      <c r="A35" s="27" t="inlineStr">
-        <is>
-          <t>2023-11-27</t>
-        </is>
-      </c>
+      <c r="A35" s="27" t="n"/>
       <c r="B35" s="28" t="n"/>
-      <c r="C35" s="27" t="inlineStr">
-        <is>
-          <t>TD 4H</t>
-        </is>
-      </c>
+      <c r="C35" s="27" t="n"/>
       <c r="D35" s="27" t="n"/>
       <c r="E35" s="27" t="n"/>
       <c r="F35" s="27" t="n"/>
@@ -15918,17 +15610,9 @@
       <c r="R35" s="27" t="n"/>
     </row>
     <row r="36">
-      <c r="A36" s="27" t="inlineStr">
-        <is>
-          <t>2023-12-04</t>
-        </is>
-      </c>
+      <c r="A36" s="27" t="n"/>
       <c r="B36" s="28" t="n"/>
-      <c r="C36" s="27" t="inlineStr">
-        <is>
-          <t>TD 4H</t>
-        </is>
-      </c>
+      <c r="C36" s="27" t="n"/>
       <c r="D36" s="27" t="n"/>
       <c r="E36" s="27" t="n"/>
       <c r="F36" s="27" t="n"/>
@@ -15946,17 +15630,9 @@
       <c r="R36" s="27" t="n"/>
     </row>
     <row r="37">
-      <c r="A37" s="27" t="inlineStr">
-        <is>
-          <t>2023-12-11</t>
-        </is>
-      </c>
+      <c r="A37" s="27" t="n"/>
       <c r="B37" s="28" t="n"/>
-      <c r="C37" s="27" t="inlineStr">
-        <is>
-          <t>TD 4H</t>
-        </is>
-      </c>
+      <c r="C37" s="27" t="n"/>
       <c r="D37" s="27" t="n"/>
       <c r="E37" s="27" t="n"/>
       <c r="F37" s="27" t="n"/>
@@ -17673,21 +17349,9 @@
       <c r="R34" s="27" t="n"/>
     </row>
     <row r="35">
-      <c r="A35" s="27" t="inlineStr">
-        <is>
-          <t>2023-11-27</t>
-        </is>
-      </c>
-      <c r="B35" s="28" t="inlineStr">
-        <is>
-          <t>Amphi 2H</t>
-        </is>
-      </c>
-      <c r="C35" s="27" t="inlineStr">
-        <is>
-          <t>TD 2H</t>
-        </is>
-      </c>
+      <c r="A35" s="27" t="n"/>
+      <c r="B35" s="28" t="n"/>
+      <c r="C35" s="27" t="n"/>
       <c r="D35" s="27" t="n"/>
       <c r="E35" s="27" t="n"/>
       <c r="F35" s="27" t="n"/>
@@ -17705,21 +17369,9 @@
       <c r="R35" s="27" t="n"/>
     </row>
     <row r="36">
-      <c r="A36" s="27" t="inlineStr">
-        <is>
-          <t>2023-12-04</t>
-        </is>
-      </c>
-      <c r="B36" s="28" t="inlineStr">
-        <is>
-          <t>Amphi 2H</t>
-        </is>
-      </c>
-      <c r="C36" s="27" t="inlineStr">
-        <is>
-          <t>TD 2H</t>
-        </is>
-      </c>
+      <c r="A36" s="27" t="n"/>
+      <c r="B36" s="28" t="n"/>
+      <c r="C36" s="27" t="n"/>
       <c r="D36" s="27" t="n"/>
       <c r="E36" s="27" t="n"/>
       <c r="F36" s="27" t="n"/>
@@ -19456,16 +19108,8 @@
       <c r="R34" s="27" t="n"/>
     </row>
     <row r="35">
-      <c r="A35" s="27" t="inlineStr">
-        <is>
-          <t>2023-10-02</t>
-        </is>
-      </c>
-      <c r="B35" s="28" t="inlineStr">
-        <is>
-          <t>Amphi 4H</t>
-        </is>
-      </c>
+      <c r="A35" s="27" t="n"/>
+      <c r="B35" s="28" t="n"/>
       <c r="C35" s="27" t="n"/>
       <c r="D35" s="27" t="n"/>
       <c r="E35" s="27" t="n"/>
@@ -19484,16 +19128,8 @@
       <c r="R35" s="27" t="n"/>
     </row>
     <row r="36">
-      <c r="A36" s="27" t="inlineStr">
-        <is>
-          <t>2023-10-09</t>
-        </is>
-      </c>
-      <c r="B36" s="28" t="inlineStr">
-        <is>
-          <t>Amphi 4H</t>
-        </is>
-      </c>
+      <c r="A36" s="27" t="n"/>
+      <c r="B36" s="28" t="n"/>
       <c r="C36" s="27" t="n"/>
       <c r="D36" s="27" t="n"/>
       <c r="E36" s="27" t="n"/>
@@ -19512,16 +19148,8 @@
       <c r="R36" s="27" t="n"/>
     </row>
     <row r="37">
-      <c r="A37" s="27" t="inlineStr">
-        <is>
-          <t>2023-10-16</t>
-        </is>
-      </c>
-      <c r="B37" s="28" t="inlineStr">
-        <is>
-          <t>Amphi 4H</t>
-        </is>
-      </c>
+      <c r="A37" s="27" t="n"/>
+      <c r="B37" s="28" t="n"/>
       <c r="C37" s="27" t="n"/>
       <c r="D37" s="27" t="n"/>
       <c r="E37" s="27" t="n"/>
@@ -19540,16 +19168,8 @@
       <c r="R37" s="27" t="n"/>
     </row>
     <row r="38">
-      <c r="A38" s="27" t="inlineStr">
-        <is>
-          <t>2023-10-23</t>
-        </is>
-      </c>
-      <c r="B38" s="27" t="inlineStr">
-        <is>
-          <t>Amphi 4H</t>
-        </is>
-      </c>
+      <c r="A38" s="27" t="n"/>
+      <c r="B38" s="27" t="n"/>
       <c r="C38" s="27" t="n"/>
       <c r="D38" s="27" t="n"/>
       <c r="E38" s="27" t="n"/>
@@ -19568,16 +19188,8 @@
       <c r="R38" s="27" t="n"/>
     </row>
     <row r="39">
-      <c r="A39" s="27" t="inlineStr">
-        <is>
-          <t>2023-11-27</t>
-        </is>
-      </c>
-      <c r="B39" s="27" t="inlineStr">
-        <is>
-          <t>Amphi 2H</t>
-        </is>
-      </c>
+      <c r="A39" s="27" t="n"/>
+      <c r="B39" s="27" t="n"/>
       <c r="C39" s="27" t="n"/>
       <c r="D39" s="27" t="n"/>
       <c r="E39" s="27" t="n"/>
@@ -21255,17 +20867,9 @@
       <c r="R34" s="27" t="n"/>
     </row>
     <row r="35">
-      <c r="A35" s="27" t="inlineStr">
-        <is>
-          <t>2023-11-27</t>
-        </is>
-      </c>
+      <c r="A35" s="27" t="n"/>
       <c r="B35" s="28" t="n"/>
-      <c r="C35" s="27" t="inlineStr">
-        <is>
-          <t>TD 4H</t>
-        </is>
-      </c>
+      <c r="C35" s="27" t="n"/>
       <c r="D35" s="27" t="n"/>
       <c r="E35" s="27" t="n"/>
       <c r="F35" s="27" t="n"/>
@@ -21283,17 +20887,9 @@
       <c r="R35" s="27" t="n"/>
     </row>
     <row r="36">
-      <c r="A36" s="27" t="inlineStr">
-        <is>
-          <t>2023-12-04</t>
-        </is>
-      </c>
+      <c r="A36" s="27" t="n"/>
       <c r="B36" s="28" t="n"/>
-      <c r="C36" s="27" t="inlineStr">
-        <is>
-          <t>TD 4H</t>
-        </is>
-      </c>
+      <c r="C36" s="27" t="n"/>
       <c r="D36" s="27" t="n"/>
       <c r="E36" s="27" t="n"/>
       <c r="F36" s="27" t="n"/>
@@ -21311,17 +20907,9 @@
       <c r="R36" s="27" t="n"/>
     </row>
     <row r="37">
-      <c r="A37" s="27" t="inlineStr">
-        <is>
-          <t>2023-12-11</t>
-        </is>
-      </c>
+      <c r="A37" s="27" t="n"/>
       <c r="B37" s="28" t="n"/>
-      <c r="C37" s="27" t="inlineStr">
-        <is>
-          <t>TD 4H</t>
-        </is>
-      </c>
+      <c r="C37" s="27" t="n"/>
       <c r="D37" s="27" t="n"/>
       <c r="E37" s="27" t="n"/>
       <c r="F37" s="27" t="n"/>
@@ -21339,17 +20927,9 @@
       <c r="R37" s="27" t="n"/>
     </row>
     <row r="38">
-      <c r="A38" s="27" t="inlineStr">
-        <is>
-          <t>2023-12-18</t>
-        </is>
-      </c>
+      <c r="A38" s="27" t="n"/>
       <c r="B38" s="27" t="n"/>
-      <c r="C38" s="27" t="inlineStr">
-        <is>
-          <t>TD 4H</t>
-        </is>
-      </c>
+      <c r="C38" s="27" t="n"/>
       <c r="D38" s="27" t="n"/>
       <c r="E38" s="27" t="n"/>
       <c r="F38" s="27" t="n"/>
@@ -23046,17 +22626,9 @@
       <c r="R34" s="27" t="n"/>
     </row>
     <row r="35">
-      <c r="A35" s="27" t="inlineStr">
-        <is>
-          <t>2023-10-02</t>
-        </is>
-      </c>
+      <c r="A35" s="27" t="n"/>
       <c r="B35" s="28" t="n"/>
-      <c r="C35" s="27" t="inlineStr">
-        <is>
-          <t>TD 4H</t>
-        </is>
-      </c>
+      <c r="C35" s="27" t="n"/>
       <c r="D35" s="27" t="n"/>
       <c r="E35" s="27" t="n"/>
       <c r="F35" s="27" t="n"/>
@@ -23074,18 +22646,10 @@
       <c r="R35" s="27" t="n"/>
     </row>
     <row r="36">
-      <c r="A36" s="27" t="inlineStr">
-        <is>
-          <t>2023-10-09</t>
-        </is>
-      </c>
+      <c r="A36" s="27" t="n"/>
       <c r="B36" s="28" t="n"/>
       <c r="C36" s="27" t="n"/>
-      <c r="D36" s="27" t="inlineStr">
-        <is>
-          <t>TP 4H</t>
-        </is>
-      </c>
+      <c r="D36" s="27" t="n"/>
       <c r="E36" s="27" t="n"/>
       <c r="F36" s="27" t="n"/>
       <c r="G36" s="27" t="n"/>
@@ -23102,17 +22666,9 @@
       <c r="R36" s="27" t="n"/>
     </row>
     <row r="37">
-      <c r="A37" s="27" t="inlineStr">
-        <is>
-          <t>2023-10-16</t>
-        </is>
-      </c>
+      <c r="A37" s="27" t="n"/>
       <c r="B37" s="28" t="n"/>
-      <c r="C37" s="27" t="inlineStr">
-        <is>
-          <t>TD 4H</t>
-        </is>
-      </c>
+      <c r="C37" s="27" t="n"/>
       <c r="D37" s="27" t="n"/>
       <c r="E37" s="27" t="n"/>
       <c r="F37" s="27" t="n"/>
@@ -23130,18 +22686,10 @@
       <c r="R37" s="27" t="n"/>
     </row>
     <row r="38">
-      <c r="A38" s="27" t="inlineStr">
-        <is>
-          <t>2023-10-23</t>
-        </is>
-      </c>
+      <c r="A38" s="27" t="n"/>
       <c r="B38" s="27" t="n"/>
       <c r="C38" s="27" t="n"/>
-      <c r="D38" s="27" t="inlineStr">
-        <is>
-          <t>TP 2H</t>
-        </is>
-      </c>
+      <c r="D38" s="27" t="n"/>
       <c r="E38" s="27" t="n"/>
       <c r="F38" s="27" t="n"/>
       <c r="G38" s="27" t="n"/>
@@ -24837,17 +24385,9 @@
       <c r="R34" s="27" t="n"/>
     </row>
     <row r="35">
-      <c r="A35" s="27" t="inlineStr">
-        <is>
-          <t>2023-11-27</t>
-        </is>
-      </c>
+      <c r="A35" s="27" t="n"/>
       <c r="B35" s="28" t="n"/>
-      <c r="C35" s="27" t="inlineStr">
-        <is>
-          <t>TD 4H</t>
-        </is>
-      </c>
+      <c r="C35" s="27" t="n"/>
       <c r="D35" s="27" t="n"/>
       <c r="E35" s="27" t="n"/>
       <c r="F35" s="27" t="n"/>
@@ -24865,17 +24405,9 @@
       <c r="R35" s="27" t="n"/>
     </row>
     <row r="36">
-      <c r="A36" s="27" t="inlineStr">
-        <is>
-          <t>2023-12-04</t>
-        </is>
-      </c>
+      <c r="A36" s="27" t="n"/>
       <c r="B36" s="28" t="n"/>
-      <c r="C36" s="27" t="inlineStr">
-        <is>
-          <t>TD 4H</t>
-        </is>
-      </c>
+      <c r="C36" s="27" t="n"/>
       <c r="D36" s="27" t="n"/>
       <c r="E36" s="27" t="n"/>
       <c r="F36" s="27" t="n"/>
@@ -24893,22 +24425,10 @@
       <c r="R36" s="27" t="n"/>
     </row>
     <row r="37">
-      <c r="A37" s="27" t="inlineStr">
-        <is>
-          <t>2023-12-11</t>
-        </is>
-      </c>
+      <c r="A37" s="27" t="n"/>
       <c r="B37" s="28" t="n"/>
-      <c r="C37" s="27" t="inlineStr">
-        <is>
-          <t>TD 2H</t>
-        </is>
-      </c>
-      <c r="D37" s="27" t="inlineStr">
-        <is>
-          <t>TP 2H</t>
-        </is>
-      </c>
+      <c r="C37" s="27" t="n"/>
+      <c r="D37" s="27" t="n"/>
       <c r="E37" s="27" t="n"/>
       <c r="F37" s="27" t="n"/>
       <c r="G37" s="27" t="n"/>
@@ -24925,18 +24445,10 @@
       <c r="R37" s="27" t="n"/>
     </row>
     <row r="38">
-      <c r="A38" s="27" t="inlineStr">
-        <is>
-          <t>2023-12-18</t>
-        </is>
-      </c>
+      <c r="A38" s="27" t="n"/>
       <c r="B38" s="27" t="n"/>
       <c r="C38" s="27" t="n"/>
-      <c r="D38" s="27" t="inlineStr">
-        <is>
-          <t>TP 4H</t>
-        </is>
-      </c>
+      <c r="D38" s="27" t="n"/>
       <c r="E38" s="27" t="n"/>
       <c r="F38" s="27" t="n"/>
       <c r="G38" s="27" t="n"/>
@@ -26632,17 +26144,9 @@
       <c r="R34" s="27" t="n"/>
     </row>
     <row r="35">
-      <c r="A35" s="27" t="inlineStr">
-        <is>
-          <t>2023-12-04</t>
-        </is>
-      </c>
+      <c r="A35" s="27" t="n"/>
       <c r="B35" s="28" t="n"/>
-      <c r="C35" s="27" t="inlineStr">
-        <is>
-          <t>TD 4H</t>
-        </is>
-      </c>
+      <c r="C35" s="27" t="n"/>
       <c r="D35" s="27" t="n"/>
       <c r="E35" s="27" t="n"/>
       <c r="F35" s="27" t="n"/>
@@ -26660,18 +26164,10 @@
       <c r="R35" s="27" t="n"/>
     </row>
     <row r="36">
-      <c r="A36" s="27" t="inlineStr">
-        <is>
-          <t>2023-12-11</t>
-        </is>
-      </c>
+      <c r="A36" s="27" t="n"/>
       <c r="B36" s="28" t="n"/>
       <c r="C36" s="27" t="n"/>
-      <c r="D36" s="27" t="inlineStr">
-        <is>
-          <t>TP 4H</t>
-        </is>
-      </c>
+      <c r="D36" s="27" t="n"/>
       <c r="E36" s="27" t="n"/>
       <c r="F36" s="27" t="n"/>
       <c r="G36" s="27" t="n"/>
@@ -26688,18 +26184,10 @@
       <c r="R36" s="27" t="n"/>
     </row>
     <row r="37">
-      <c r="A37" s="27" t="inlineStr">
-        <is>
-          <t>2023-12-18</t>
-        </is>
-      </c>
+      <c r="A37" s="27" t="n"/>
       <c r="B37" s="28" t="n"/>
       <c r="C37" s="27" t="n"/>
-      <c r="D37" s="27" t="inlineStr">
-        <is>
-          <t>TP 4H</t>
-        </is>
-      </c>
+      <c r="D37" s="27" t="n"/>
       <c r="E37" s="27" t="n"/>
       <c r="F37" s="27" t="n"/>
       <c r="G37" s="27" t="n"/>
@@ -28415,21 +27903,9 @@
       <c r="R34" s="27" t="n"/>
     </row>
     <row r="35">
-      <c r="A35" s="27" t="inlineStr">
-        <is>
-          <t>2023-10-02</t>
-        </is>
-      </c>
-      <c r="B35" s="28" t="inlineStr">
-        <is>
-          <t>Amphi 2H</t>
-        </is>
-      </c>
-      <c r="C35" s="27" t="inlineStr">
-        <is>
-          <t>TD 4H</t>
-        </is>
-      </c>
+      <c r="A35" s="27" t="n"/>
+      <c r="B35" s="28" t="n"/>
+      <c r="C35" s="27" t="n"/>
       <c r="D35" s="27" t="n"/>
       <c r="E35" s="27" t="n"/>
       <c r="F35" s="27" t="n"/>
@@ -28447,21 +27923,9 @@
       <c r="R35" s="27" t="n"/>
     </row>
     <row r="36">
-      <c r="A36" s="27" t="inlineStr">
-        <is>
-          <t>2023-10-09</t>
-        </is>
-      </c>
-      <c r="B36" s="28" t="inlineStr">
-        <is>
-          <t>Amphi 2H</t>
-        </is>
-      </c>
-      <c r="C36" s="27" t="inlineStr">
-        <is>
-          <t>TD 4H</t>
-        </is>
-      </c>
+      <c r="A36" s="27" t="n"/>
+      <c r="B36" s="28" t="n"/>
+      <c r="C36" s="27" t="n"/>
       <c r="D36" s="27" t="n"/>
       <c r="E36" s="27" t="n"/>
       <c r="F36" s="27" t="n"/>
@@ -28479,18 +27943,10 @@
       <c r="R36" s="27" t="n"/>
     </row>
     <row r="37">
-      <c r="A37" s="27" t="inlineStr">
-        <is>
-          <t>2023-10-16</t>
-        </is>
-      </c>
+      <c r="A37" s="27" t="n"/>
       <c r="B37" s="28" t="n"/>
       <c r="C37" s="27" t="n"/>
-      <c r="D37" s="27" t="inlineStr">
-        <is>
-          <t>TP 4H</t>
-        </is>
-      </c>
+      <c r="D37" s="27" t="n"/>
       <c r="E37" s="27" t="n"/>
       <c r="F37" s="27" t="n"/>
       <c r="G37" s="27" t="n"/>
@@ -28507,18 +27963,10 @@
       <c r="R37" s="27" t="n"/>
     </row>
     <row r="38">
-      <c r="A38" s="27" t="inlineStr">
-        <is>
-          <t>2023-10-23</t>
-        </is>
-      </c>
+      <c r="A38" s="27" t="n"/>
       <c r="B38" s="27" t="n"/>
       <c r="C38" s="27" t="n"/>
-      <c r="D38" s="27" t="inlineStr">
-        <is>
-          <t>TP 4H</t>
-        </is>
-      </c>
+      <c r="D38" s="27" t="n"/>
       <c r="E38" s="27" t="n"/>
       <c r="F38" s="27" t="n"/>
       <c r="G38" s="27" t="n"/>

--- a/SAE_3_01/fichiers genere/S5AFI.xlsx
+++ b/SAE_3_01/fichiers genere/S5AFI.xlsx
@@ -3277,9 +3277,17 @@
       <c r="R34" s="27" t="n"/>
     </row>
     <row r="35">
-      <c r="A35" s="27" t="n"/>
+      <c r="A35" s="27" t="inlineStr">
+        <is>
+          <t>2023-10-02</t>
+        </is>
+      </c>
       <c r="B35" s="28" t="n"/>
-      <c r="C35" s="27" t="n"/>
+      <c r="C35" s="27" t="inlineStr">
+        <is>
+          <t>TD 4H</t>
+        </is>
+      </c>
       <c r="D35" s="27" t="n"/>
       <c r="E35" s="27" t="n"/>
       <c r="F35" s="27" t="n"/>
@@ -3297,9 +3305,17 @@
       <c r="R35" s="27" t="n"/>
     </row>
     <row r="36">
-      <c r="A36" s="27" t="n"/>
+      <c r="A36" s="27" t="inlineStr">
+        <is>
+          <t>2023-10-09</t>
+        </is>
+      </c>
       <c r="B36" s="28" t="n"/>
-      <c r="C36" s="27" t="n"/>
+      <c r="C36" s="27" t="inlineStr">
+        <is>
+          <t>TD 4H</t>
+        </is>
+      </c>
       <c r="D36" s="27" t="n"/>
       <c r="E36" s="27" t="n"/>
       <c r="F36" s="27" t="n"/>
@@ -3317,9 +3333,17 @@
       <c r="R36" s="27" t="n"/>
     </row>
     <row r="37">
-      <c r="A37" s="27" t="n"/>
+      <c r="A37" s="27" t="inlineStr">
+        <is>
+          <t>2023-10-16</t>
+        </is>
+      </c>
       <c r="B37" s="28" t="n"/>
-      <c r="C37" s="27" t="n"/>
+      <c r="C37" s="27" t="inlineStr">
+        <is>
+          <t>TD 4H</t>
+        </is>
+      </c>
       <c r="D37" s="27" t="n"/>
       <c r="E37" s="27" t="n"/>
       <c r="F37" s="27" t="n"/>
@@ -3337,10 +3361,18 @@
       <c r="R37" s="27" t="n"/>
     </row>
     <row r="38">
-      <c r="A38" s="27" t="n"/>
+      <c r="A38" s="27" t="inlineStr">
+        <is>
+          <t>2023-11-27</t>
+        </is>
+      </c>
       <c r="B38" s="27" t="n"/>
       <c r="C38" s="27" t="n"/>
-      <c r="D38" s="27" t="n"/>
+      <c r="D38" s="27" t="inlineStr">
+        <is>
+          <t>TP 4H</t>
+        </is>
+      </c>
       <c r="E38" s="27" t="n"/>
       <c r="F38" s="27" t="n"/>
       <c r="G38" s="27" t="n"/>
@@ -5036,9 +5068,21 @@
       <c r="R34" s="27" t="n"/>
     </row>
     <row r="35">
-      <c r="A35" s="27" t="n"/>
-      <c r="B35" s="28" t="n"/>
-      <c r="C35" s="27" t="n"/>
+      <c r="A35" s="27" t="inlineStr">
+        <is>
+          <t>2023-10-09</t>
+        </is>
+      </c>
+      <c r="B35" s="28" t="inlineStr">
+        <is>
+          <t>Amphi 2H</t>
+        </is>
+      </c>
+      <c r="C35" s="27" t="inlineStr">
+        <is>
+          <t>TD 2H</t>
+        </is>
+      </c>
       <c r="D35" s="27" t="n"/>
       <c r="E35" s="27" t="n"/>
       <c r="F35" s="27" t="n"/>
@@ -5056,9 +5100,21 @@
       <c r="R35" s="27" t="n"/>
     </row>
     <row r="36">
-      <c r="A36" s="27" t="n"/>
-      <c r="B36" s="28" t="n"/>
-      <c r="C36" s="27" t="n"/>
+      <c r="A36" s="27" t="inlineStr">
+        <is>
+          <t>2023-10-16</t>
+        </is>
+      </c>
+      <c r="B36" s="28" t="inlineStr">
+        <is>
+          <t>Amphi 2H</t>
+        </is>
+      </c>
+      <c r="C36" s="27" t="inlineStr">
+        <is>
+          <t>TD 2H</t>
+        </is>
+      </c>
       <c r="D36" s="27" t="n"/>
       <c r="E36" s="27" t="n"/>
       <c r="F36" s="27" t="n"/>
@@ -5076,10 +5132,22 @@
       <c r="R36" s="27" t="n"/>
     </row>
     <row r="37">
-      <c r="A37" s="27" t="n"/>
+      <c r="A37" s="27" t="inlineStr">
+        <is>
+          <t>2023-10-23</t>
+        </is>
+      </c>
       <c r="B37" s="28" t="n"/>
-      <c r="C37" s="27" t="n"/>
-      <c r="D37" s="27" t="n"/>
+      <c r="C37" s="27" t="inlineStr">
+        <is>
+          <t>TD 4H</t>
+        </is>
+      </c>
+      <c r="D37" s="27" t="inlineStr">
+        <is>
+          <t>TP 2H</t>
+        </is>
+      </c>
       <c r="E37" s="27" t="n"/>
       <c r="F37" s="27" t="n"/>
       <c r="G37" s="27" t="n"/>
@@ -5096,9 +5164,21 @@
       <c r="R37" s="27" t="n"/>
     </row>
     <row r="38">
-      <c r="A38" s="27" t="n"/>
-      <c r="B38" s="27" t="n"/>
-      <c r="C38" s="27" t="n"/>
+      <c r="A38" s="27" t="inlineStr">
+        <is>
+          <t>2023-12-04</t>
+        </is>
+      </c>
+      <c r="B38" s="27" t="inlineStr">
+        <is>
+          <t>Amphi 2H</t>
+        </is>
+      </c>
+      <c r="C38" s="27" t="inlineStr">
+        <is>
+          <t>TD 4H</t>
+        </is>
+      </c>
       <c r="D38" s="27" t="n"/>
       <c r="E38" s="27" t="n"/>
       <c r="F38" s="27" t="n"/>
@@ -5116,9 +5196,21 @@
       <c r="R38" s="27" t="n"/>
     </row>
     <row r="39">
-      <c r="A39" s="27" t="n"/>
-      <c r="B39" s="27" t="n"/>
-      <c r="C39" s="27" t="n"/>
+      <c r="A39" s="27" t="inlineStr">
+        <is>
+          <t>2023-12-11</t>
+        </is>
+      </c>
+      <c r="B39" s="27" t="inlineStr">
+        <is>
+          <t>Amphi 2H</t>
+        </is>
+      </c>
+      <c r="C39" s="27" t="inlineStr">
+        <is>
+          <t>TD 4H</t>
+        </is>
+      </c>
       <c r="D39" s="27" t="n"/>
       <c r="E39" s="27" t="n"/>
       <c r="F39" s="27" t="n"/>
@@ -5136,10 +5228,18 @@
       <c r="R39" s="27" t="n"/>
     </row>
     <row r="40">
-      <c r="A40" s="27" t="n"/>
+      <c r="A40" s="27" t="inlineStr">
+        <is>
+          <t>2023-12-18</t>
+        </is>
+      </c>
       <c r="B40" s="27" t="n"/>
       <c r="C40" s="27" t="n"/>
-      <c r="D40" s="27" t="n"/>
+      <c r="D40" s="27" t="inlineStr">
+        <is>
+          <t>TP 4H</t>
+        </is>
+      </c>
       <c r="E40" s="27" t="n"/>
       <c r="F40" s="27" t="n"/>
       <c r="G40" s="27" t="n"/>
@@ -6795,9 +6895,17 @@
       <c r="R34" s="27" t="n"/>
     </row>
     <row r="35">
-      <c r="A35" s="27" t="n"/>
+      <c r="A35" s="27" t="inlineStr">
+        <is>
+          <t>2023-10-02</t>
+        </is>
+      </c>
       <c r="B35" s="28" t="n"/>
-      <c r="C35" s="27" t="n"/>
+      <c r="C35" s="27" t="inlineStr">
+        <is>
+          <t>TD 4H</t>
+        </is>
+      </c>
       <c r="D35" s="27" t="n"/>
       <c r="E35" s="27" t="n"/>
       <c r="F35" s="27" t="n"/>
@@ -6815,9 +6923,17 @@
       <c r="R35" s="27" t="n"/>
     </row>
     <row r="36">
-      <c r="A36" s="27" t="n"/>
+      <c r="A36" s="27" t="inlineStr">
+        <is>
+          <t>2023-10-09</t>
+        </is>
+      </c>
       <c r="B36" s="28" t="n"/>
-      <c r="C36" s="27" t="n"/>
+      <c r="C36" s="27" t="inlineStr">
+        <is>
+          <t>TD 4H</t>
+        </is>
+      </c>
       <c r="D36" s="27" t="n"/>
       <c r="E36" s="27" t="n"/>
       <c r="F36" s="27" t="n"/>
@@ -6835,9 +6951,17 @@
       <c r="R36" s="27" t="n"/>
     </row>
     <row r="37">
-      <c r="A37" s="27" t="n"/>
+      <c r="A37" s="27" t="inlineStr">
+        <is>
+          <t>2023-10-16</t>
+        </is>
+      </c>
       <c r="B37" s="28" t="n"/>
-      <c r="C37" s="27" t="n"/>
+      <c r="C37" s="27" t="inlineStr">
+        <is>
+          <t>TD 4H</t>
+        </is>
+      </c>
       <c r="D37" s="27" t="n"/>
       <c r="E37" s="27" t="n"/>
       <c r="F37" s="27" t="n"/>
@@ -6855,10 +6979,18 @@
       <c r="R37" s="27" t="n"/>
     </row>
     <row r="38">
-      <c r="A38" s="27" t="n"/>
+      <c r="A38" s="27" t="inlineStr">
+        <is>
+          <t>2023-10-23</t>
+        </is>
+      </c>
       <c r="B38" s="27" t="n"/>
       <c r="C38" s="27" t="n"/>
-      <c r="D38" s="27" t="n"/>
+      <c r="D38" s="27" t="inlineStr">
+        <is>
+          <t>TP 2H</t>
+        </is>
+      </c>
       <c r="E38" s="27" t="n"/>
       <c r="F38" s="27" t="n"/>
       <c r="G38" s="27" t="n"/>
@@ -8554,8 +8686,16 @@
       <c r="R34" s="27" t="n"/>
     </row>
     <row r="35">
-      <c r="A35" s="27" t="n"/>
-      <c r="B35" s="28" t="n"/>
+      <c r="A35" s="27" t="inlineStr">
+        <is>
+          <t>2023-10-02</t>
+        </is>
+      </c>
+      <c r="B35" s="28" t="inlineStr">
+        <is>
+          <t>Amphi 2H</t>
+        </is>
+      </c>
       <c r="C35" s="27" t="n"/>
       <c r="D35" s="27" t="n"/>
       <c r="E35" s="27" t="n"/>
@@ -8574,9 +8714,17 @@
       <c r="R35" s="27" t="n"/>
     </row>
     <row r="36">
-      <c r="A36" s="27" t="n"/>
+      <c r="A36" s="27" t="inlineStr">
+        <is>
+          <t>2023-10-09</t>
+        </is>
+      </c>
       <c r="B36" s="28" t="n"/>
-      <c r="C36" s="27" t="n"/>
+      <c r="C36" s="27" t="inlineStr">
+        <is>
+          <t>TD 4H</t>
+        </is>
+      </c>
       <c r="D36" s="27" t="n"/>
       <c r="E36" s="27" t="n"/>
       <c r="F36" s="27" t="n"/>
@@ -8594,9 +8742,17 @@
       <c r="R36" s="27" t="n"/>
     </row>
     <row r="37">
-      <c r="A37" s="27" t="n"/>
+      <c r="A37" s="27" t="inlineStr">
+        <is>
+          <t>2023-10-16</t>
+        </is>
+      </c>
       <c r="B37" s="28" t="n"/>
-      <c r="C37" s="27" t="n"/>
+      <c r="C37" s="27" t="inlineStr">
+        <is>
+          <t>TD 4H</t>
+        </is>
+      </c>
       <c r="D37" s="27" t="n"/>
       <c r="E37" s="27" t="n"/>
       <c r="F37" s="27" t="n"/>
@@ -8614,9 +8770,17 @@
       <c r="R37" s="27" t="n"/>
     </row>
     <row r="38">
-      <c r="A38" s="27" t="n"/>
+      <c r="A38" s="27" t="inlineStr">
+        <is>
+          <t>2023-10-23</t>
+        </is>
+      </c>
       <c r="B38" s="27" t="n"/>
-      <c r="C38" s="27" t="n"/>
+      <c r="C38" s="27" t="inlineStr">
+        <is>
+          <t>TD 4H</t>
+        </is>
+      </c>
       <c r="D38" s="27" t="n"/>
       <c r="E38" s="27" t="n"/>
       <c r="F38" s="27" t="n"/>
@@ -8634,9 +8798,17 @@
       <c r="R38" s="27" t="n"/>
     </row>
     <row r="39">
-      <c r="A39" s="27" t="n"/>
+      <c r="A39" s="27" t="inlineStr">
+        <is>
+          <t>2023-11-27</t>
+        </is>
+      </c>
       <c r="B39" s="27" t="n"/>
-      <c r="C39" s="27" t="n"/>
+      <c r="C39" s="27" t="inlineStr">
+        <is>
+          <t>TD 4H</t>
+        </is>
+      </c>
       <c r="D39" s="27" t="n"/>
       <c r="E39" s="27" t="n"/>
       <c r="F39" s="27" t="n"/>
@@ -8654,9 +8826,17 @@
       <c r="R39" s="27" t="n"/>
     </row>
     <row r="40">
-      <c r="A40" s="27" t="n"/>
+      <c r="A40" s="27" t="inlineStr">
+        <is>
+          <t>2023-12-04</t>
+        </is>
+      </c>
       <c r="B40" s="27" t="n"/>
-      <c r="C40" s="27" t="n"/>
+      <c r="C40" s="27" t="inlineStr">
+        <is>
+          <t>TD 4H</t>
+        </is>
+      </c>
       <c r="D40" s="27" t="n"/>
       <c r="E40" s="27" t="n"/>
       <c r="F40" s="27" t="n"/>
@@ -8674,9 +8854,17 @@
       <c r="R40" s="27" t="n"/>
     </row>
     <row r="41">
-      <c r="A41" s="27" t="n"/>
+      <c r="A41" s="27" t="inlineStr">
+        <is>
+          <t>2023-12-11</t>
+        </is>
+      </c>
       <c r="B41" s="27" t="n"/>
-      <c r="C41" s="27" t="n"/>
+      <c r="C41" s="27" t="inlineStr">
+        <is>
+          <t>TD 4H</t>
+        </is>
+      </c>
       <c r="D41" s="27" t="n"/>
       <c r="E41" s="27" t="n"/>
       <c r="F41" s="27" t="n"/>
@@ -8694,9 +8882,17 @@
       <c r="R41" s="27" t="n"/>
     </row>
     <row r="42">
-      <c r="A42" s="27" t="n"/>
+      <c r="A42" s="27" t="inlineStr">
+        <is>
+          <t>2023-12-18</t>
+        </is>
+      </c>
       <c r="B42" s="27" t="n"/>
-      <c r="C42" s="27" t="n"/>
+      <c r="C42" s="27" t="inlineStr">
+        <is>
+          <t>TD 4H</t>
+        </is>
+      </c>
       <c r="D42" s="27" t="n"/>
       <c r="E42" s="27" t="n"/>
       <c r="F42" s="27" t="n"/>
@@ -10313,9 +10509,17 @@
       <c r="R34" s="27" t="n"/>
     </row>
     <row r="35">
-      <c r="A35" s="27" t="n"/>
+      <c r="A35" s="27" t="inlineStr">
+        <is>
+          <t>2023-10-02</t>
+        </is>
+      </c>
       <c r="B35" s="28" t="n"/>
-      <c r="C35" s="27" t="n"/>
+      <c r="C35" s="27" t="inlineStr">
+        <is>
+          <t>TD 4H</t>
+        </is>
+      </c>
       <c r="D35" s="27" t="n"/>
       <c r="E35" s="27" t="n"/>
       <c r="F35" s="27" t="n"/>
@@ -10333,9 +10537,17 @@
       <c r="R35" s="27" t="n"/>
     </row>
     <row r="36">
-      <c r="A36" s="27" t="n"/>
+      <c r="A36" s="27" t="inlineStr">
+        <is>
+          <t>2023-10-09</t>
+        </is>
+      </c>
       <c r="B36" s="28" t="n"/>
-      <c r="C36" s="27" t="n"/>
+      <c r="C36" s="27" t="inlineStr">
+        <is>
+          <t>TD 4H</t>
+        </is>
+      </c>
       <c r="D36" s="27" t="n"/>
       <c r="E36" s="27" t="n"/>
       <c r="F36" s="27" t="n"/>
@@ -10353,9 +10565,17 @@
       <c r="R36" s="27" t="n"/>
     </row>
     <row r="37">
-      <c r="A37" s="27" t="n"/>
+      <c r="A37" s="27" t="inlineStr">
+        <is>
+          <t>2023-10-16</t>
+        </is>
+      </c>
       <c r="B37" s="28" t="n"/>
-      <c r="C37" s="27" t="n"/>
+      <c r="C37" s="27" t="inlineStr">
+        <is>
+          <t>TD 4H</t>
+        </is>
+      </c>
       <c r="D37" s="27" t="n"/>
       <c r="E37" s="27" t="n"/>
       <c r="F37" s="27" t="n"/>
@@ -12072,10 +12292,18 @@
       <c r="R34" s="27" t="n"/>
     </row>
     <row r="35">
-      <c r="A35" s="27" t="n"/>
+      <c r="A35" s="27" t="inlineStr">
+        <is>
+          <t>2023-10-02</t>
+        </is>
+      </c>
       <c r="B35" s="28" t="n"/>
       <c r="C35" s="27" t="n"/>
-      <c r="D35" s="27" t="n"/>
+      <c r="D35" s="27" t="inlineStr">
+        <is>
+          <t>TP 2H</t>
+        </is>
+      </c>
       <c r="E35" s="27" t="n"/>
       <c r="F35" s="27" t="n"/>
       <c r="G35" s="27" t="n"/>
@@ -12092,10 +12320,18 @@
       <c r="R35" s="27" t="n"/>
     </row>
     <row r="36">
-      <c r="A36" s="27" t="n"/>
+      <c r="A36" s="27" t="inlineStr">
+        <is>
+          <t>2023-10-09</t>
+        </is>
+      </c>
       <c r="B36" s="28" t="n"/>
       <c r="C36" s="27" t="n"/>
-      <c r="D36" s="27" t="n"/>
+      <c r="D36" s="27" t="inlineStr">
+        <is>
+          <t>TP 2H</t>
+        </is>
+      </c>
       <c r="E36" s="27" t="n"/>
       <c r="F36" s="27" t="n"/>
       <c r="G36" s="27" t="n"/>
@@ -12112,10 +12348,18 @@
       <c r="R36" s="27" t="n"/>
     </row>
     <row r="37">
-      <c r="A37" s="27" t="n"/>
+      <c r="A37" s="27" t="inlineStr">
+        <is>
+          <t>2023-10-16</t>
+        </is>
+      </c>
       <c r="B37" s="28" t="n"/>
       <c r="C37" s="27" t="n"/>
-      <c r="D37" s="27" t="n"/>
+      <c r="D37" s="27" t="inlineStr">
+        <is>
+          <t>TP 2H</t>
+        </is>
+      </c>
       <c r="E37" s="27" t="n"/>
       <c r="F37" s="27" t="n"/>
       <c r="G37" s="27" t="n"/>
@@ -12132,10 +12376,18 @@
       <c r="R37" s="27" t="n"/>
     </row>
     <row r="38">
-      <c r="A38" s="27" t="n"/>
+      <c r="A38" s="27" t="inlineStr">
+        <is>
+          <t>2023-10-23</t>
+        </is>
+      </c>
       <c r="B38" s="27" t="n"/>
       <c r="C38" s="27" t="n"/>
-      <c r="D38" s="27" t="n"/>
+      <c r="D38" s="27" t="inlineStr">
+        <is>
+          <t>TP 2H</t>
+        </is>
+      </c>
       <c r="E38" s="27" t="n"/>
       <c r="F38" s="27" t="n"/>
       <c r="G38" s="27" t="n"/>
@@ -12152,10 +12404,18 @@
       <c r="R38" s="27" t="n"/>
     </row>
     <row r="39">
-      <c r="A39" s="27" t="n"/>
+      <c r="A39" s="27" t="inlineStr">
+        <is>
+          <t>2023-11-27</t>
+        </is>
+      </c>
       <c r="B39" s="27" t="n"/>
       <c r="C39" s="27" t="n"/>
-      <c r="D39" s="27" t="n"/>
+      <c r="D39" s="27" t="inlineStr">
+        <is>
+          <t>TP 2H</t>
+        </is>
+      </c>
       <c r="E39" s="27" t="n"/>
       <c r="F39" s="27" t="n"/>
       <c r="G39" s="27" t="n"/>
@@ -12172,10 +12432,18 @@
       <c r="R39" s="27" t="n"/>
     </row>
     <row r="40">
-      <c r="A40" s="27" t="n"/>
+      <c r="A40" s="27" t="inlineStr">
+        <is>
+          <t>2023-12-04</t>
+        </is>
+      </c>
       <c r="B40" s="27" t="n"/>
       <c r="C40" s="27" t="n"/>
-      <c r="D40" s="27" t="n"/>
+      <c r="D40" s="27" t="inlineStr">
+        <is>
+          <t>TP 2H</t>
+        </is>
+      </c>
       <c r="E40" s="27" t="n"/>
       <c r="F40" s="27" t="n"/>
       <c r="G40" s="27" t="n"/>
@@ -12192,10 +12460,18 @@
       <c r="R40" s="27" t="n"/>
     </row>
     <row r="41">
-      <c r="A41" s="27" t="n"/>
+      <c r="A41" s="27" t="inlineStr">
+        <is>
+          <t>2023-12-11</t>
+        </is>
+      </c>
       <c r="B41" s="27" t="n"/>
       <c r="C41" s="27" t="n"/>
-      <c r="D41" s="27" t="n"/>
+      <c r="D41" s="27" t="inlineStr">
+        <is>
+          <t>TP 2H</t>
+        </is>
+      </c>
       <c r="E41" s="27" t="n"/>
       <c r="F41" s="27" t="n"/>
       <c r="G41" s="27" t="n"/>
@@ -12212,10 +12488,18 @@
       <c r="R41" s="27" t="n"/>
     </row>
     <row r="42">
-      <c r="A42" s="27" t="n"/>
+      <c r="A42" s="27" t="inlineStr">
+        <is>
+          <t>2023-12-18</t>
+        </is>
+      </c>
       <c r="B42" s="27" t="n"/>
       <c r="C42" s="27" t="n"/>
-      <c r="D42" s="27" t="n"/>
+      <c r="D42" s="27" t="inlineStr">
+        <is>
+          <t>TP 2H</t>
+        </is>
+      </c>
       <c r="E42" s="27" t="n"/>
       <c r="F42" s="27" t="n"/>
       <c r="G42" s="27" t="n"/>
@@ -12232,10 +12516,18 @@
       <c r="R42" s="27" t="n"/>
     </row>
     <row r="43">
-      <c r="A43" s="27" t="n"/>
+      <c r="A43" s="27" t="inlineStr">
+        <is>
+          <t>2024-01-08</t>
+        </is>
+      </c>
       <c r="B43" s="27" t="n"/>
       <c r="C43" s="27" t="n"/>
-      <c r="D43" s="27" t="n"/>
+      <c r="D43" s="27" t="inlineStr">
+        <is>
+          <t>TP 2H</t>
+        </is>
+      </c>
       <c r="E43" s="27" t="n"/>
       <c r="F43" s="27" t="n"/>
       <c r="G43" s="27" t="n"/>
@@ -12252,10 +12544,18 @@
       <c r="R43" s="27" t="n"/>
     </row>
     <row r="44">
-      <c r="A44" s="27" t="n"/>
+      <c r="A44" s="27" t="inlineStr">
+        <is>
+          <t>2024-01-15</t>
+        </is>
+      </c>
       <c r="B44" s="27" t="n"/>
       <c r="C44" s="27" t="n"/>
-      <c r="D44" s="27" t="n"/>
+      <c r="D44" s="27" t="inlineStr">
+        <is>
+          <t>TP 2H</t>
+        </is>
+      </c>
       <c r="E44" s="27" t="n"/>
       <c r="F44" s="27" t="n"/>
       <c r="G44" s="27" t="n"/>
@@ -15590,9 +15890,17 @@
       <c r="R34" s="27" t="n"/>
     </row>
     <row r="35">
-      <c r="A35" s="27" t="n"/>
+      <c r="A35" s="27" t="inlineStr">
+        <is>
+          <t>2023-11-27</t>
+        </is>
+      </c>
       <c r="B35" s="28" t="n"/>
-      <c r="C35" s="27" t="n"/>
+      <c r="C35" s="27" t="inlineStr">
+        <is>
+          <t>TD 4H</t>
+        </is>
+      </c>
       <c r="D35" s="27" t="n"/>
       <c r="E35" s="27" t="n"/>
       <c r="F35" s="27" t="n"/>
@@ -15610,9 +15918,17 @@
       <c r="R35" s="27" t="n"/>
     </row>
     <row r="36">
-      <c r="A36" s="27" t="n"/>
+      <c r="A36" s="27" t="inlineStr">
+        <is>
+          <t>2023-12-04</t>
+        </is>
+      </c>
       <c r="B36" s="28" t="n"/>
-      <c r="C36" s="27" t="n"/>
+      <c r="C36" s="27" t="inlineStr">
+        <is>
+          <t>TD 4H</t>
+        </is>
+      </c>
       <c r="D36" s="27" t="n"/>
       <c r="E36" s="27" t="n"/>
       <c r="F36" s="27" t="n"/>
@@ -15630,9 +15946,17 @@
       <c r="R36" s="27" t="n"/>
     </row>
     <row r="37">
-      <c r="A37" s="27" t="n"/>
+      <c r="A37" s="27" t="inlineStr">
+        <is>
+          <t>2023-12-11</t>
+        </is>
+      </c>
       <c r="B37" s="28" t="n"/>
-      <c r="C37" s="27" t="n"/>
+      <c r="C37" s="27" t="inlineStr">
+        <is>
+          <t>TD 4H</t>
+        </is>
+      </c>
       <c r="D37" s="27" t="n"/>
       <c r="E37" s="27" t="n"/>
       <c r="F37" s="27" t="n"/>
@@ -17349,9 +17673,21 @@
       <c r="R34" s="27" t="n"/>
     </row>
     <row r="35">
-      <c r="A35" s="27" t="n"/>
-      <c r="B35" s="28" t="n"/>
-      <c r="C35" s="27" t="n"/>
+      <c r="A35" s="27" t="inlineStr">
+        <is>
+          <t>2023-11-27</t>
+        </is>
+      </c>
+      <c r="B35" s="28" t="inlineStr">
+        <is>
+          <t>Amphi 2H</t>
+        </is>
+      </c>
+      <c r="C35" s="27" t="inlineStr">
+        <is>
+          <t>TD 2H</t>
+        </is>
+      </c>
       <c r="D35" s="27" t="n"/>
       <c r="E35" s="27" t="n"/>
       <c r="F35" s="27" t="n"/>
@@ -17369,9 +17705,21 @@
       <c r="R35" s="27" t="n"/>
     </row>
     <row r="36">
-      <c r="A36" s="27" t="n"/>
-      <c r="B36" s="28" t="n"/>
-      <c r="C36" s="27" t="n"/>
+      <c r="A36" s="27" t="inlineStr">
+        <is>
+          <t>2023-12-04</t>
+        </is>
+      </c>
+      <c r="B36" s="28" t="inlineStr">
+        <is>
+          <t>Amphi 2H</t>
+        </is>
+      </c>
+      <c r="C36" s="27" t="inlineStr">
+        <is>
+          <t>TD 2H</t>
+        </is>
+      </c>
       <c r="D36" s="27" t="n"/>
       <c r="E36" s="27" t="n"/>
       <c r="F36" s="27" t="n"/>
@@ -19108,8 +19456,16 @@
       <c r="R34" s="27" t="n"/>
     </row>
     <row r="35">
-      <c r="A35" s="27" t="n"/>
-      <c r="B35" s="28" t="n"/>
+      <c r="A35" s="27" t="inlineStr">
+        <is>
+          <t>2023-10-02</t>
+        </is>
+      </c>
+      <c r="B35" s="28" t="inlineStr">
+        <is>
+          <t>Amphi 4H</t>
+        </is>
+      </c>
       <c r="C35" s="27" t="n"/>
       <c r="D35" s="27" t="n"/>
       <c r="E35" s="27" t="n"/>
@@ -19128,8 +19484,16 @@
       <c r="R35" s="27" t="n"/>
     </row>
     <row r="36">
-      <c r="A36" s="27" t="n"/>
-      <c r="B36" s="28" t="n"/>
+      <c r="A36" s="27" t="inlineStr">
+        <is>
+          <t>2023-10-09</t>
+        </is>
+      </c>
+      <c r="B36" s="28" t="inlineStr">
+        <is>
+          <t>Amphi 4H</t>
+        </is>
+      </c>
       <c r="C36" s="27" t="n"/>
       <c r="D36" s="27" t="n"/>
       <c r="E36" s="27" t="n"/>
@@ -19148,8 +19512,16 @@
       <c r="R36" s="27" t="n"/>
     </row>
     <row r="37">
-      <c r="A37" s="27" t="n"/>
-      <c r="B37" s="28" t="n"/>
+      <c r="A37" s="27" t="inlineStr">
+        <is>
+          <t>2023-10-16</t>
+        </is>
+      </c>
+      <c r="B37" s="28" t="inlineStr">
+        <is>
+          <t>Amphi 4H</t>
+        </is>
+      </c>
       <c r="C37" s="27" t="n"/>
       <c r="D37" s="27" t="n"/>
       <c r="E37" s="27" t="n"/>
@@ -19168,8 +19540,16 @@
       <c r="R37" s="27" t="n"/>
     </row>
     <row r="38">
-      <c r="A38" s="27" t="n"/>
-      <c r="B38" s="27" t="n"/>
+      <c r="A38" s="27" t="inlineStr">
+        <is>
+          <t>2023-10-23</t>
+        </is>
+      </c>
+      <c r="B38" s="27" t="inlineStr">
+        <is>
+          <t>Amphi 4H</t>
+        </is>
+      </c>
       <c r="C38" s="27" t="n"/>
       <c r="D38" s="27" t="n"/>
       <c r="E38" s="27" t="n"/>
@@ -19188,8 +19568,16 @@
       <c r="R38" s="27" t="n"/>
     </row>
     <row r="39">
-      <c r="A39" s="27" t="n"/>
-      <c r="B39" s="27" t="n"/>
+      <c r="A39" s="27" t="inlineStr">
+        <is>
+          <t>2023-11-27</t>
+        </is>
+      </c>
+      <c r="B39" s="27" t="inlineStr">
+        <is>
+          <t>Amphi 2H</t>
+        </is>
+      </c>
       <c r="C39" s="27" t="n"/>
       <c r="D39" s="27" t="n"/>
       <c r="E39" s="27" t="n"/>
@@ -20867,9 +21255,17 @@
       <c r="R34" s="27" t="n"/>
     </row>
     <row r="35">
-      <c r="A35" s="27" t="n"/>
+      <c r="A35" s="27" t="inlineStr">
+        <is>
+          <t>2023-11-27</t>
+        </is>
+      </c>
       <c r="B35" s="28" t="n"/>
-      <c r="C35" s="27" t="n"/>
+      <c r="C35" s="27" t="inlineStr">
+        <is>
+          <t>TD 4H</t>
+        </is>
+      </c>
       <c r="D35" s="27" t="n"/>
       <c r="E35" s="27" t="n"/>
       <c r="F35" s="27" t="n"/>
@@ -20887,9 +21283,17 @@
       <c r="R35" s="27" t="n"/>
     </row>
     <row r="36">
-      <c r="A36" s="27" t="n"/>
+      <c r="A36" s="27" t="inlineStr">
+        <is>
+          <t>2023-12-04</t>
+        </is>
+      </c>
       <c r="B36" s="28" t="n"/>
-      <c r="C36" s="27" t="n"/>
+      <c r="C36" s="27" t="inlineStr">
+        <is>
+          <t>TD 4H</t>
+        </is>
+      </c>
       <c r="D36" s="27" t="n"/>
       <c r="E36" s="27" t="n"/>
       <c r="F36" s="27" t="n"/>
@@ -20907,9 +21311,17 @@
       <c r="R36" s="27" t="n"/>
     </row>
     <row r="37">
-      <c r="A37" s="27" t="n"/>
+      <c r="A37" s="27" t="inlineStr">
+        <is>
+          <t>2023-12-11</t>
+        </is>
+      </c>
       <c r="B37" s="28" t="n"/>
-      <c r="C37" s="27" t="n"/>
+      <c r="C37" s="27" t="inlineStr">
+        <is>
+          <t>TD 4H</t>
+        </is>
+      </c>
       <c r="D37" s="27" t="n"/>
       <c r="E37" s="27" t="n"/>
       <c r="F37" s="27" t="n"/>
@@ -20927,9 +21339,17 @@
       <c r="R37" s="27" t="n"/>
     </row>
     <row r="38">
-      <c r="A38" s="27" t="n"/>
+      <c r="A38" s="27" t="inlineStr">
+        <is>
+          <t>2023-12-18</t>
+        </is>
+      </c>
       <c r="B38" s="27" t="n"/>
-      <c r="C38" s="27" t="n"/>
+      <c r="C38" s="27" t="inlineStr">
+        <is>
+          <t>TD 4H</t>
+        </is>
+      </c>
       <c r="D38" s="27" t="n"/>
       <c r="E38" s="27" t="n"/>
       <c r="F38" s="27" t="n"/>
@@ -22626,9 +23046,17 @@
       <c r="R34" s="27" t="n"/>
     </row>
     <row r="35">
-      <c r="A35" s="27" t="n"/>
+      <c r="A35" s="27" t="inlineStr">
+        <is>
+          <t>2023-10-02</t>
+        </is>
+      </c>
       <c r="B35" s="28" t="n"/>
-      <c r="C35" s="27" t="n"/>
+      <c r="C35" s="27" t="inlineStr">
+        <is>
+          <t>TD 4H</t>
+        </is>
+      </c>
       <c r="D35" s="27" t="n"/>
       <c r="E35" s="27" t="n"/>
       <c r="F35" s="27" t="n"/>
@@ -22646,10 +23074,18 @@
       <c r="R35" s="27" t="n"/>
     </row>
     <row r="36">
-      <c r="A36" s="27" t="n"/>
+      <c r="A36" s="27" t="inlineStr">
+        <is>
+          <t>2023-10-09</t>
+        </is>
+      </c>
       <c r="B36" s="28" t="n"/>
       <c r="C36" s="27" t="n"/>
-      <c r="D36" s="27" t="n"/>
+      <c r="D36" s="27" t="inlineStr">
+        <is>
+          <t>TP 4H</t>
+        </is>
+      </c>
       <c r="E36" s="27" t="n"/>
       <c r="F36" s="27" t="n"/>
       <c r="G36" s="27" t="n"/>
@@ -22666,9 +23102,17 @@
       <c r="R36" s="27" t="n"/>
     </row>
     <row r="37">
-      <c r="A37" s="27" t="n"/>
+      <c r="A37" s="27" t="inlineStr">
+        <is>
+          <t>2023-10-16</t>
+        </is>
+      </c>
       <c r="B37" s="28" t="n"/>
-      <c r="C37" s="27" t="n"/>
+      <c r="C37" s="27" t="inlineStr">
+        <is>
+          <t>TD 4H</t>
+        </is>
+      </c>
       <c r="D37" s="27" t="n"/>
       <c r="E37" s="27" t="n"/>
       <c r="F37" s="27" t="n"/>
@@ -22686,10 +23130,18 @@
       <c r="R37" s="27" t="n"/>
     </row>
     <row r="38">
-      <c r="A38" s="27" t="n"/>
+      <c r="A38" s="27" t="inlineStr">
+        <is>
+          <t>2023-10-23</t>
+        </is>
+      </c>
       <c r="B38" s="27" t="n"/>
       <c r="C38" s="27" t="n"/>
-      <c r="D38" s="27" t="n"/>
+      <c r="D38" s="27" t="inlineStr">
+        <is>
+          <t>TP 2H</t>
+        </is>
+      </c>
       <c r="E38" s="27" t="n"/>
       <c r="F38" s="27" t="n"/>
       <c r="G38" s="27" t="n"/>
@@ -24385,9 +24837,17 @@
       <c r="R34" s="27" t="n"/>
     </row>
     <row r="35">
-      <c r="A35" s="27" t="n"/>
+      <c r="A35" s="27" t="inlineStr">
+        <is>
+          <t>2023-11-27</t>
+        </is>
+      </c>
       <c r="B35" s="28" t="n"/>
-      <c r="C35" s="27" t="n"/>
+      <c r="C35" s="27" t="inlineStr">
+        <is>
+          <t>TD 4H</t>
+        </is>
+      </c>
       <c r="D35" s="27" t="n"/>
       <c r="E35" s="27" t="n"/>
       <c r="F35" s="27" t="n"/>
@@ -24405,9 +24865,17 @@
       <c r="R35" s="27" t="n"/>
     </row>
     <row r="36">
-      <c r="A36" s="27" t="n"/>
+      <c r="A36" s="27" t="inlineStr">
+        <is>
+          <t>2023-12-04</t>
+        </is>
+      </c>
       <c r="B36" s="28" t="n"/>
-      <c r="C36" s="27" t="n"/>
+      <c r="C36" s="27" t="inlineStr">
+        <is>
+          <t>TD 4H</t>
+        </is>
+      </c>
       <c r="D36" s="27" t="n"/>
       <c r="E36" s="27" t="n"/>
       <c r="F36" s="27" t="n"/>
@@ -24425,10 +24893,22 @@
       <c r="R36" s="27" t="n"/>
     </row>
     <row r="37">
-      <c r="A37" s="27" t="n"/>
+      <c r="A37" s="27" t="inlineStr">
+        <is>
+          <t>2023-12-11</t>
+        </is>
+      </c>
       <c r="B37" s="28" t="n"/>
-      <c r="C37" s="27" t="n"/>
-      <c r="D37" s="27" t="n"/>
+      <c r="C37" s="27" t="inlineStr">
+        <is>
+          <t>TD 2H</t>
+        </is>
+      </c>
+      <c r="D37" s="27" t="inlineStr">
+        <is>
+          <t>TP 2H</t>
+        </is>
+      </c>
       <c r="E37" s="27" t="n"/>
       <c r="F37" s="27" t="n"/>
       <c r="G37" s="27" t="n"/>
@@ -24445,10 +24925,18 @@
       <c r="R37" s="27" t="n"/>
     </row>
     <row r="38">
-      <c r="A38" s="27" t="n"/>
+      <c r="A38" s="27" t="inlineStr">
+        <is>
+          <t>2023-12-18</t>
+        </is>
+      </c>
       <c r="B38" s="27" t="n"/>
       <c r="C38" s="27" t="n"/>
-      <c r="D38" s="27" t="n"/>
+      <c r="D38" s="27" t="inlineStr">
+        <is>
+          <t>TP 4H</t>
+        </is>
+      </c>
       <c r="E38" s="27" t="n"/>
       <c r="F38" s="27" t="n"/>
       <c r="G38" s="27" t="n"/>
@@ -26144,9 +26632,17 @@
       <c r="R34" s="27" t="n"/>
     </row>
     <row r="35">
-      <c r="A35" s="27" t="n"/>
+      <c r="A35" s="27" t="inlineStr">
+        <is>
+          <t>2023-12-04</t>
+        </is>
+      </c>
       <c r="B35" s="28" t="n"/>
-      <c r="C35" s="27" t="n"/>
+      <c r="C35" s="27" t="inlineStr">
+        <is>
+          <t>TD 4H</t>
+        </is>
+      </c>
       <c r="D35" s="27" t="n"/>
       <c r="E35" s="27" t="n"/>
       <c r="F35" s="27" t="n"/>
@@ -26164,10 +26660,18 @@
       <c r="R35" s="27" t="n"/>
     </row>
     <row r="36">
-      <c r="A36" s="27" t="n"/>
+      <c r="A36" s="27" t="inlineStr">
+        <is>
+          <t>2023-12-11</t>
+        </is>
+      </c>
       <c r="B36" s="28" t="n"/>
       <c r="C36" s="27" t="n"/>
-      <c r="D36" s="27" t="n"/>
+      <c r="D36" s="27" t="inlineStr">
+        <is>
+          <t>TP 4H</t>
+        </is>
+      </c>
       <c r="E36" s="27" t="n"/>
       <c r="F36" s="27" t="n"/>
       <c r="G36" s="27" t="n"/>
@@ -26184,10 +26688,18 @@
       <c r="R36" s="27" t="n"/>
     </row>
     <row r="37">
-      <c r="A37" s="27" t="n"/>
+      <c r="A37" s="27" t="inlineStr">
+        <is>
+          <t>2023-12-18</t>
+        </is>
+      </c>
       <c r="B37" s="28" t="n"/>
       <c r="C37" s="27" t="n"/>
-      <c r="D37" s="27" t="n"/>
+      <c r="D37" s="27" t="inlineStr">
+        <is>
+          <t>TP 4H</t>
+        </is>
+      </c>
       <c r="E37" s="27" t="n"/>
       <c r="F37" s="27" t="n"/>
       <c r="G37" s="27" t="n"/>
@@ -27903,9 +28415,21 @@
       <c r="R34" s="27" t="n"/>
     </row>
     <row r="35">
-      <c r="A35" s="27" t="n"/>
-      <c r="B35" s="28" t="n"/>
-      <c r="C35" s="27" t="n"/>
+      <c r="A35" s="27" t="inlineStr">
+        <is>
+          <t>2023-10-02</t>
+        </is>
+      </c>
+      <c r="B35" s="28" t="inlineStr">
+        <is>
+          <t>Amphi 2H</t>
+        </is>
+      </c>
+      <c r="C35" s="27" t="inlineStr">
+        <is>
+          <t>TD 4H</t>
+        </is>
+      </c>
       <c r="D35" s="27" t="n"/>
       <c r="E35" s="27" t="n"/>
       <c r="F35" s="27" t="n"/>
@@ -27923,9 +28447,21 @@
       <c r="R35" s="27" t="n"/>
     </row>
     <row r="36">
-      <c r="A36" s="27" t="n"/>
-      <c r="B36" s="28" t="n"/>
-      <c r="C36" s="27" t="n"/>
+      <c r="A36" s="27" t="inlineStr">
+        <is>
+          <t>2023-10-09</t>
+        </is>
+      </c>
+      <c r="B36" s="28" t="inlineStr">
+        <is>
+          <t>Amphi 2H</t>
+        </is>
+      </c>
+      <c r="C36" s="27" t="inlineStr">
+        <is>
+          <t>TD 4H</t>
+        </is>
+      </c>
       <c r="D36" s="27" t="n"/>
       <c r="E36" s="27" t="n"/>
       <c r="F36" s="27" t="n"/>
@@ -27943,10 +28479,18 @@
       <c r="R36" s="27" t="n"/>
     </row>
     <row r="37">
-      <c r="A37" s="27" t="n"/>
+      <c r="A37" s="27" t="inlineStr">
+        <is>
+          <t>2023-10-16</t>
+        </is>
+      </c>
       <c r="B37" s="28" t="n"/>
       <c r="C37" s="27" t="n"/>
-      <c r="D37" s="27" t="n"/>
+      <c r="D37" s="27" t="inlineStr">
+        <is>
+          <t>TP 4H</t>
+        </is>
+      </c>
       <c r="E37" s="27" t="n"/>
       <c r="F37" s="27" t="n"/>
       <c r="G37" s="27" t="n"/>
@@ -27963,10 +28507,18 @@
       <c r="R37" s="27" t="n"/>
     </row>
     <row r="38">
-      <c r="A38" s="27" t="n"/>
+      <c r="A38" s="27" t="inlineStr">
+        <is>
+          <t>2023-10-23</t>
+        </is>
+      </c>
       <c r="B38" s="27" t="n"/>
       <c r="C38" s="27" t="n"/>
-      <c r="D38" s="27" t="n"/>
+      <c r="D38" s="27" t="inlineStr">
+        <is>
+          <t>TP 4H</t>
+        </is>
+      </c>
       <c r="E38" s="27" t="n"/>
       <c r="F38" s="27" t="n"/>
       <c r="G38" s="27" t="n"/>

--- a/SAE_3_01/fichiers genere/S5AFI.xlsx
+++ b/SAE_3_01/fichiers genere/S5AFI.xlsx
@@ -7,21 +7,21 @@
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="R5.01 Initiation au management " sheetId="2" state="visible" r:id="rId2"/>
-    <sheet name="R5.02 PPP" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet name="R5.03 Stratégies de communicati" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet name="R5.A.04 Qualité algorithmique" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet name="R5.A.05 Programmation avancée" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet name="R5.A.06 Sensibilisation à la pr" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet name="R5.A.07 Automatisation de la ch" sheetId="8" state="visible" r:id="rId8"/>
-    <sheet name="R5.A.08 Qualité de développemen" sheetId="9" state="visible" r:id="rId9"/>
-    <sheet name="R5.A.09 Virtualisation avancée" sheetId="10" state="visible" r:id="rId10"/>
-    <sheet name="R5.A.10 Nouveaux paradigmes de " sheetId="11" state="visible" r:id="rId11"/>
-    <sheet name="R5.A.11 Méthodes d'optimisation" sheetId="12" state="visible" r:id="rId12"/>
-    <sheet name="R5.A.12 Modélisation mathématiq" sheetId="13" state="visible" r:id="rId13"/>
-    <sheet name="R5.A.13 Economie durable et num" sheetId="14" state="visible" r:id="rId14"/>
-    <sheet name="R5.A.14 Anglais de spécialité" sheetId="15" state="visible" r:id="rId15"/>
-    <sheet name="R5.A.L1 Compléments IA" sheetId="16" state="visible" r:id="rId16"/>
+    <sheet name="R5.01" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="R5.02" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="R5.03" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="R5.A.04" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet name="R5.A.05" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet name="R5.A.06" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet name="R5.A.07" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet name="R5.A.08" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet name="R5.A.09" sheetId="10" state="visible" r:id="rId10"/>
+    <sheet name="R5.A.10" sheetId="11" state="visible" r:id="rId11"/>
+    <sheet name="R5.A.11" sheetId="12" state="visible" r:id="rId12"/>
+    <sheet name="R5.A.12" sheetId="13" state="visible" r:id="rId13"/>
+    <sheet name="R5.A.13" sheetId="14" state="visible" r:id="rId14"/>
+    <sheet name="R5.A.14" sheetId="15" state="visible" r:id="rId15"/>
+    <sheet name="R5.A.L1" sheetId="16" state="visible" r:id="rId16"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="191028" fullCalcOnLoad="1"/>
@@ -11555,7 +11555,7 @@
       </c>
       <c r="G2" s="27" t="inlineStr">
         <is>
-          <t>Josée VAQUIERI PORTOLANO</t>
+          <t>JosÃ©e VAQUIERI PORTOLANO</t>
         </is>
       </c>
       <c r="H2" s="27" t="n"/>
@@ -20518,7 +20518,7 @@
       </c>
       <c r="G2" s="27" t="inlineStr">
         <is>
-          <t>Frédéric FLOUVAT</t>
+          <t>FrÃ©dÃ©ric FLOUVAT</t>
         </is>
       </c>
       <c r="H2" s="27" t="n"/>
@@ -24100,7 +24100,7 @@
       </c>
       <c r="G2" s="27" t="inlineStr">
         <is>
-          <t>Frédéric FLOUVAT</t>
+          <t>FrÃ©dÃ©ric FLOUVAT</t>
         </is>
       </c>
       <c r="H2" s="27" t="n"/>
@@ -25895,7 +25895,7 @@
       </c>
       <c r="G2" s="27" t="inlineStr">
         <is>
-          <t>Frédéric FLOUVAT</t>
+          <t>FrÃ©dÃ©ric FLOUVAT</t>
         </is>
       </c>
       <c r="H2" s="27" t="n"/>

--- a/SAE_3_01/fichiers genere/S5AFI.xlsx
+++ b/SAE_3_01/fichiers genere/S5AFI.xlsx
@@ -5240,7 +5240,11 @@
           <t>TP 4H</t>
         </is>
       </c>
-      <c r="E40" s="27" t="n"/>
+      <c r="E40" s="27" t="inlineStr">
+        <is>
+          <t>Test 2H</t>
+        </is>
+      </c>
       <c r="F40" s="27" t="n"/>
       <c r="G40" s="27" t="n"/>
       <c r="H40" s="27" t="n"/>
@@ -6991,7 +6995,11 @@
           <t>TP 2H</t>
         </is>
       </c>
-      <c r="E38" s="27" t="n"/>
+      <c r="E38" s="27" t="inlineStr">
+        <is>
+          <t>Test 2H</t>
+        </is>
+      </c>
       <c r="F38" s="27" t="n"/>
       <c r="G38" s="27" t="n"/>
       <c r="H38" s="27" t="n"/>
@@ -11555,7 +11563,7 @@
       </c>
       <c r="G2" s="27" t="inlineStr">
         <is>
-          <t>JosÃ©e VAQUIERI PORTOLANO</t>
+          <t>Josée VAQUIERI PORTOLANO</t>
         </is>
       </c>
       <c r="H2" s="27" t="n"/>
@@ -20518,7 +20526,7 @@
       </c>
       <c r="G2" s="27" t="inlineStr">
         <is>
-          <t>FrÃ©dÃ©ric FLOUVAT</t>
+          <t>Frédéric FLOUVAT</t>
         </is>
       </c>
       <c r="H2" s="27" t="n"/>
@@ -21351,7 +21359,11 @@
         </is>
       </c>
       <c r="D38" s="27" t="n"/>
-      <c r="E38" s="27" t="n"/>
+      <c r="E38" s="27" t="inlineStr">
+        <is>
+          <t>Test 2H</t>
+        </is>
+      </c>
       <c r="F38" s="27" t="n"/>
       <c r="G38" s="27" t="n"/>
       <c r="H38" s="27" t="n"/>
@@ -24100,7 +24112,7 @@
       </c>
       <c r="G2" s="27" t="inlineStr">
         <is>
-          <t>FrÃ©dÃ©ric FLOUVAT</t>
+          <t>Frédéric FLOUVAT</t>
         </is>
       </c>
       <c r="H2" s="27" t="n"/>
@@ -25895,7 +25907,7 @@
       </c>
       <c r="G2" s="27" t="inlineStr">
         <is>
-          <t>FrÃ©dÃ©ric FLOUVAT</t>
+          <t>Frédéric FLOUVAT</t>
         </is>
       </c>
       <c r="H2" s="27" t="n"/>
@@ -28519,7 +28531,11 @@
           <t>TP 4H</t>
         </is>
       </c>
-      <c r="E38" s="27" t="n"/>
+      <c r="E38" s="27" t="inlineStr">
+        <is>
+          <t>Test 2H</t>
+        </is>
+      </c>
       <c r="F38" s="27" t="n"/>
       <c r="G38" s="27" t="n"/>
       <c r="H38" s="27" t="n"/>
